--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.023014053320542E-08</v>
+        <v>-1.023014053320542E-08</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.387969090256192E-06</v>
+        <v>-4.387969090256192E-06</v>
       </c>
       <c r="C4">
-        <v>2.972434408739419E-08</v>
+        <v>-2.972434408739419E-08</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2079.260599389473</v>
+        <v>-2079.260599389473</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1156.907506550721</v>
+        <v>-1156.907506550721</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>621489.8681049421</v>
+        <v>-621489.8681049421</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10408523.99669087</v>
+        <v>-10408523.99669087</v>
       </c>
       <c r="C4">
-        <v>1805779.561523995</v>
+        <v>-1805779.561523995</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>300597185.8741556</v>
+        <v>-300597185.8741556</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116487351.4074285</v>
+        <v>-116487351.4074285</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>537230.1408199621</v>
+        <v>-537230.1408199621</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9262623.736910585</v>
+        <v>-9262623.736910585</v>
       </c>
       <c r="C4">
-        <v>1560957.399169595</v>
+        <v>-1560957.399169595</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>296289626.1066293</v>
+        <v>-296289626.1066293</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119892977.8171535</v>
+        <v>-119892977.8171535</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.215162447856165E-07</v>
+        <v>-2.215162447856165E-07</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.022021299509037E-05</v>
+        <v>-8.022021299509037E-05</v>
       </c>
       <c r="C4">
-        <v>6.436299735651823E-07</v>
+        <v>-6.436299735651823E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4853.08129754584</v>
+        <v>-4853.08129754584</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2700.270272298681</v>
+        <v>-2700.270272298681</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.497628308470739E-06</v>
+        <v>-3.497628308470739E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001080182191698713</v>
+        <v>-0.001080182191698713</v>
       </c>
       <c r="C4">
-        <v>1.016258838217733E-05</v>
+        <v>-1.016258838217733E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10555.26533687108</v>
+        <v>-10555.26533687108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5872.980351863163</v>
+        <v>-5872.980351863163</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.252313574295065E-05</v>
+        <v>-4.252313574295065E-05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.01135518358718843</v>
+        <v>-0.01135518358718843</v>
       </c>
       <c r="C4">
-        <v>0.0001235537590510884</v>
+        <v>-0.0001235537590510884</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21763.66992321113</v>
+        <v>-21763.66992321113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12109.33163104561</v>
+        <v>-12109.33163104561</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004150714398306306</v>
+        <v>-0.0004150714398306306</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0972890808513146</v>
+        <v>-0.0972890808513146</v>
       </c>
       <c r="C4">
-        <v>0.00120601728376355</v>
+        <v>-0.00120601728376355</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>43087.0585944147</v>
+        <v>-43087.0585944147</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>23973.3811184752</v>
+        <v>-23973.3811184752</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003362517070464372</v>
+        <v>-0.003362517070464372</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7019524660190595</v>
+        <v>-0.7019524660190595</v>
       </c>
       <c r="C4">
-        <v>0.009770013821198473</v>
+        <v>-0.009770013821198473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>82578.4824950419</v>
+        <v>-82578.4824950419</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>45944.03857759073</v>
+        <v>-45944.03857759073</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0232167981201681</v>
+        <v>-0.0232167981201681</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.374938747391522</v>
+        <v>-4.374938747391522</v>
       </c>
       <c r="C4">
-        <v>0.06745792921333529</v>
+        <v>-0.06745792921333529</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>153638.6096577336</v>
+        <v>-153638.6096577336</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>85466.90334455948</v>
+        <v>-85466.90334455948</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1396063654892676</v>
+        <v>-0.1396063654892676</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>24.03372992963008</v>
+        <v>-24.03372992963008</v>
       </c>
       <c r="C4">
-        <v>0.4056354486161953</v>
+        <v>-0.4056354486161953</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>277210.592280727</v>
+        <v>-277210.592280727</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>154141.1322950742</v>
+        <v>-154141.1322950742</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.744130578309839</v>
+        <v>-0.744130578309839</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>118.2836055733992</v>
+        <v>-118.2836055733992</v>
       </c>
       <c r="C4">
-        <v>2.162120186310165</v>
+        <v>-2.162120186310165</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>484245.3256867185</v>
+        <v>-484245.3256867185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>268943.9447439528</v>
+        <v>-268943.9447439528</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.567650756796994</v>
+        <v>-3.567650756796994</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>528.5197956889974</v>
+        <v>-528.5197956889974</v>
       </c>
       <c r="C4">
-        <v>10.3660431970096</v>
+        <v>-10.3660431970096</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>818895.9589051851</v>
+        <v>-818895.9589051851</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>453435.8320726518</v>
+        <v>-453435.8320726518</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>15.57380613091929</v>
+        <v>-15.57380613091929</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2167.67771219191</v>
+        <v>-2167.67771219191</v>
       </c>
       <c r="C4">
-        <v>45.2507148541357</v>
+        <v>-45.2507148541357</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1344210.779309631</v>
+        <v>-1344210.779309631</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>738885.0709531244</v>
+        <v>-738885.0709531244</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>62.53209559513608</v>
+        <v>-62.53209559513608</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8234.280470843885</v>
+        <v>-8234.280470843885</v>
       </c>
       <c r="C4">
-        <v>181.69110384579</v>
+        <v>-181.69110384579</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2155991.419888539</v>
+        <v>-2155991.419888539</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1165221.953183086</v>
+        <v>-1165221.953183086</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>232.8778188034235</v>
+        <v>-232.8778188034235</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>29171.88231429973</v>
+        <v>-29171.88231429973</v>
       </c>
       <c r="C4">
-        <v>676.6417718277302</v>
+        <v>-676.6417718277302</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3421355.033734956</v>
+        <v>-3421355.033734956</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1781705.280761176</v>
+        <v>-1781705.280761176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>809.4106048238106</v>
+        <v>-809.4106048238106</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>96763.56899673237</v>
+        <v>-96763.56899673237</v>
       </c>
       <c r="C4">
-        <v>2351.795583616513</v>
+        <v>-2351.795583616513</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5485493.036697092</v>
+        <v>-5485493.036697092</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2647145.154996484</v>
+        <v>-2647145.154996484</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2632.608756106366</v>
+        <v>-2632.608756106366</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>299840.0167481017</v>
+        <v>-299840.0167481017</v>
       </c>
       <c r="C4">
-        <v>7649.217355323414</v>
+        <v>-7649.217355323414</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9141031.783642756</v>
+        <v>-9141031.783642756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3829450.203243584</v>
+        <v>-3829450.203243584</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7972.732375716274</v>
+        <v>-7972.732375716274</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>853619.9561753162</v>
+        <v>-853619.9561753162</v>
       </c>
       <c r="C4">
-        <v>23165.29667244403</v>
+        <v>-23165.29667244403</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16154124.99268527</v>
+        <v>-16154124.99268527</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5404188.640691504</v>
+        <v>-5404188.640691504</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>21976.46454028312</v>
+        <v>-21976.46454028312</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2126246.712919038</v>
+        <v>-2126246.712919038</v>
       </c>
       <c r="C4">
-        <v>63854.05867099203</v>
+        <v>-63854.05867099203</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>29488819.05750207</v>
+        <v>-29488819.05750207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7451855.595590254</v>
+        <v>-7451855.595590254</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>51914.90443700419</v>
+        <v>-51914.90443700419</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4176299.142618021</v>
+        <v>-4176299.142618021</v>
       </c>
       <c r="C4">
-        <v>150842.1587896005</v>
+        <v>-150842.1587896005</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>49896089.19248102</v>
+        <v>-49896089.19248102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10053741.29174166</v>
+        <v>-10053741.29174166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>92919.36798198729</v>
+        <v>-92919.36798198729</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5767087.485053484</v>
+        <v>-5767087.485053484</v>
       </c>
       <c r="C4">
-        <v>269983.3161934462</v>
+        <v>-269983.3161934462</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>68343063.31331737</v>
+        <v>-68343063.31331737</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13286270.29072706</v>
+        <v>-13286270.29072706</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>105213.5558173688</v>
+        <v>-105213.5558173688</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6182363.590942079</v>
+        <v>-6182363.590942079</v>
       </c>
       <c r="C4">
-        <v>305704.8850524258</v>
+        <v>-305704.8850524258</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>78739132.65100463</v>
+        <v>-78739132.65100463</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>17213695.38910869</v>
+        <v>-17213695.38910869</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005828152809110678</v>
+        <v>-0.005828152809110678</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003242803639487899</v>
+        <v>-0.003242803639487899</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>70212.83861445691</v>
+        <v>-70212.83861445691</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6578720.512841512</v>
+        <v>-6578720.512841512</v>
       </c>
       <c r="C4">
-        <v>204008.0062981171</v>
+        <v>-204008.0062981171</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>89179111.04986022</v>
+        <v>-89179111.04986022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>21879898.87982713</v>
+        <v>-21879898.87982713</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>49898.95502944766</v>
+        <v>-49898.95502944766</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7228049.949549552</v>
+        <v>-7228049.949549552</v>
       </c>
       <c r="C4">
-        <v>144984.685604507</v>
+        <v>-144984.685604507</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>103182216.5268677</v>
+        <v>-103182216.5268677</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>27300438.42960649</v>
+        <v>-27300438.42960649</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>80339.10577666681</v>
+        <v>-80339.10577666681</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7912321.755426957</v>
+        <v>-7912321.755426957</v>
       </c>
       <c r="C4">
-        <v>233430.5394953318</v>
+        <v>-233430.5394953318</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>119991284.049724</v>
+        <v>-119991284.049724</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>33456007.37948038</v>
+        <v>-33456007.37948038</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>125335.241918018</v>
+        <v>-125335.241918018</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8652847.743933678</v>
+        <v>-8652847.743933678</v>
       </c>
       <c r="C4">
-        <v>364169.7633532549</v>
+        <v>-364169.7633532549</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>138782645.0013851</v>
+        <v>-138782645.0013851</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>40289280.85375486</v>
+        <v>-40289280.85375486</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>177172.6845291316</v>
+        <v>-177172.6845291316</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9218747.399766553</v>
+        <v>-9218747.399766553</v>
       </c>
       <c r="C4">
-        <v>514786.8517287261</v>
+        <v>-514786.8517287261</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>157513926.2682168</v>
+        <v>-157513926.2682168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>47708150.90546677</v>
+        <v>-47708150.90546677</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>245207.1550296345</v>
+        <v>-245207.1550296345</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9849513.219933243</v>
+        <v>-9849513.219933243</v>
       </c>
       <c r="C4">
-        <v>712465.4666408688</v>
+        <v>-712465.4666408688</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>177960941.7445076</v>
+        <v>-177960941.7445076</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>55599223.63749462</v>
+        <v>-55599223.63749462</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>293714.1293675324</v>
+        <v>-293714.1293675324</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9941011.644566307</v>
+        <v>-9941011.644566307</v>
       </c>
       <c r="C4">
-        <v>853405.6610769179</v>
+        <v>-853405.6610769179</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>194644652.6118896</v>
+        <v>-194644652.6118896</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>63855818.41873296</v>
+        <v>-63855818.41873296</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>329667.8331089359</v>
+        <v>-329667.8331089359</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9558606.789828591</v>
+        <v>-9558606.789828591</v>
       </c>
       <c r="C4">
-        <v>957871.504704078</v>
+        <v>-957871.504704078</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>208115400.5269404</v>
+        <v>-208115400.5269404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>72423957.901803</v>
+        <v>-72423957.901803</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>475557.0253315495</v>
+        <v>-475557.0253315495</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9568268.507578172</v>
+        <v>-9568268.507578172</v>
       </c>
       <c r="C4">
-        <v>1381762.118345356</v>
+        <v>-1381762.118345356</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>227792571.9041317</v>
+        <v>-227792571.9041317</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>81367209.95642519</v>
+        <v>-81367209.95642519</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>764085.6799859026</v>
+        <v>-764085.6799859026</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9406825.732777515</v>
+        <v>-9406825.732777515</v>
       </c>
       <c r="C4">
-        <v>2220101.042642782</v>
+        <v>-2220101.042642782</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>250814169.6710061</v>
+        <v>-250814169.6710061</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>90946127.37154475</v>
+        <v>-90946127.37154475</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3568988418686358</v>
+        <v>-0.3568988418686358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1985797046246681</v>
+        <v>-0.1985797046246681</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1071210.848318351</v>
+        <v>-1071210.848318351</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9341355.011746626</v>
+        <v>-9341355.011746626</v>
       </c>
       <c r="C4">
-        <v>3112473.356765051</v>
+        <v>-3112473.356765051</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>277100830.1039306</v>
+        <v>-277100830.1039306</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101700279.3594383</v>
+        <v>-101700279.3594383</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1379649.196584175</v>
+        <v>-1379649.196584175</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9248299.168016449</v>
+        <v>-9248299.168016449</v>
       </c>
       <c r="C4">
-        <v>4008661.20128611</v>
+        <v>-4008661.20128611</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>306917804.4470043</v>
+        <v>-306917804.4470043</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>114513362.3679365</v>
+        <v>-114513362.3679365</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1427952.483564505</v>
+        <v>-1427952.483564505</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8841077.452435959</v>
+        <v>-8841077.452435959</v>
       </c>
       <c r="C4">
-        <v>4149009.568749407</v>
+        <v>-4149009.568749407</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>334085716.730737</v>
+        <v>-334085716.730737</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>130637313.4783591</v>
+        <v>-130637313.4783591</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1253244.213447413</v>
+        <v>-1253244.213447413</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8311645.888759891</v>
+        <v>-8311645.888759891</v>
       </c>
       <c r="C4">
-        <v>3641383.23468118</v>
+        <v>-3641383.23468118</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>363748238.1360357</v>
+        <v>-363748238.1360357</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>151652062.4131939</v>
+        <v>-151652062.4131939</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1227889.207794963</v>
+        <v>-1227889.207794963</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7555254.387366435</v>
+        <v>-7555254.387366435</v>
       </c>
       <c r="C4">
-        <v>3567712.603285159</v>
+        <v>-3567712.603285159</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>407371999.5036933</v>
+        <v>-407371999.5036933</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>179346725.1422881</v>
+        <v>-179346725.1422881</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1128931.520355846</v>
+        <v>-1128931.520355846</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7438112.571432175</v>
+        <v>-7438112.571432175</v>
       </c>
       <c r="C4">
-        <v>3280184.55398949</v>
+        <v>-3280184.55398949</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>469139986.0902363</v>
+        <v>-469139986.0902363</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>215525173.6961772</v>
+        <v>-215525173.6961772</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>979385.9804810027</v>
+        <v>-979385.9804810027</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8557335.670594694</v>
+        <v>-8557335.670594694</v>
       </c>
       <c r="C4">
-        <v>2845670.182505859</v>
+        <v>-2845670.182505859</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>556804958.2883157</v>
+        <v>-556804958.2883157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>261759040.7581686</v>
+        <v>-261759040.7581686</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>833678.7068487682</v>
+        <v>-833678.7068487682</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11508755.358347</v>
+        <v>-11508755.358347</v>
       </c>
       <c r="C4">
-        <v>2422308.145256936</v>
+        <v>-2422308.145256936</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>677982838.9983189</v>
+        <v>-677982838.9983189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>319125785.9093431</v>
+        <v>-319125785.9093431</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>925681.534331348</v>
+        <v>-925681.534331348</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>17519082.62972273</v>
+        <v>-17519082.62972273</v>
       </c>
       <c r="C4">
-        <v>2689628.392933777</v>
+        <v>-2689628.392933777</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>847938034.7792233</v>
+        <v>-847938034.7792233</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>387971078.4235833</v>
+        <v>-387971078.4235833</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1433009.911204391</v>
+        <v>-1433009.911204391</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>26569146.02023208</v>
+        <v>-26569146.02023208</v>
       </c>
       <c r="C4">
-        <v>4163704.256361676</v>
+        <v>-4163704.256361676</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1069804343.396348</v>
+        <v>-1069804343.396348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>467723304.7484853</v>
+        <v>-467723304.7484853</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.930882830129947</v>
+        <v>-3.930882830129947</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.1871563024256</v>
+        <v>-2.1871563024256</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2040836.48753299</v>
+        <v>-2040836.48753299</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>37145918.71857047</v>
+        <v>-37145918.71857047</v>
       </c>
       <c r="C4">
-        <v>5929784.227757046</v>
+        <v>-5929784.227757046</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1321987946.240841</v>
+        <v>-1321987946.240841</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>556772052.2575649</v>
+        <v>-556772052.2575649</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2847165.513628735</v>
+        <v>-2847165.513628735</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>51773263.97694762</v>
+        <v>-51773263.97694762</v>
       </c>
       <c r="C4">
-        <v>8272626.08232672</v>
+        <v>-8272626.08232672</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1620478441.904168</v>
+        <v>-1620478441.904168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>652414302.3017101</v>
+        <v>-652414302.3017101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4044583.912380546</v>
+        <v>-4044583.912380546</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>73294153.59178126</v>
+        <v>-73294153.59178126</v>
       </c>
       <c r="C4">
-        <v>11751803.75203202</v>
+        <v>-11751803.75203202</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1983971159.355517</v>
+        <v>-1983971159.355517</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>750878369.6028527</v>
+        <v>-750878369.6028527</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4870046.43777597</v>
+        <v>-4870046.43777597</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>87870031.79803012</v>
+        <v>-87870031.79803012</v>
       </c>
       <c r="C4">
-        <v>14150239.24335904</v>
+        <v>-14150239.24335904</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2284219385.447958</v>
+        <v>-2284219385.447958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>847450417.698794</v>
+        <v>-847450417.698794</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4954739.327215167</v>
+        <v>-4954739.327215167</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>89156790.55989209</v>
+        <v>-89156790.55989209</v>
       </c>
       <c r="C4">
-        <v>14396319.98675402</v>
+        <v>-14396319.98675402</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2456158382.716143</v>
+        <v>-2456158382.716143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>936735961.9954327</v>
+        <v>-936735961.9954327</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4889294.783160634</v>
+        <v>-4889294.783160634</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>87992039.72055167</v>
+        <v>-87992039.72055167</v>
       </c>
       <c r="C4">
-        <v>14206166.57294651</v>
+        <v>-14206166.57294651</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2583248278.990799</v>
+        <v>-2583248278.990799</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1013074811.918623</v>
+        <v>-1013074811.918623</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4775353.407675251</v>
+        <v>-4775353.407675251</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>85902543.30235392</v>
+        <v>-85902543.30235392</v>
       </c>
       <c r="C4">
-        <v>13875102.43558443</v>
+        <v>-13875102.43558443</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2669462722.250011</v>
+        <v>-2669462722.250011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1071090179.519302</v>
+        <v>-1071090179.519302</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4604197.830729514</v>
+        <v>-4604197.830729514</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>82479582.74038038</v>
+        <v>-82479582.74038038</v>
       </c>
       <c r="C4">
-        <v>13377798.68446798</v>
+        <v>-13377798.68446798</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2703549648.973216</v>
+        <v>-2703549648.973216</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1106303457.147646</v>
+        <v>-1106303457.147646</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4451709.689626601</v>
+        <v>-4451709.689626601</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>79365961.11558114</v>
+        <v>-79365961.11558114</v>
       </c>
       <c r="C4">
-        <v>12934734.39217619</v>
+        <v>-12934734.39217619</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2693964567.340743</v>
+        <v>-2693964567.340743</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1115706079.043343</v>
+        <v>-1115706079.043343</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4303705.303948736</v>
+        <v>-4303705.303948736</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>76432831.95801996</v>
+        <v>-76432831.95801996</v>
       </c>
       <c r="C4">
-        <v>12504697.94526203</v>
+        <v>-12504697.94526203</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2637391018.485797</v>
+        <v>-2637391018.485797</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1098168640.726398</v>
+        <v>-1098168640.726398</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.92435507587474</v>
+        <v>-21.92435507587474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.19878420523436</v>
+        <v>-12.19878420523436</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3929088.894046354</v>
+        <v>-3929088.894046354</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>69428085.37009783</v>
+        <v>-69428085.37009783</v>
       </c>
       <c r="C4">
-        <v>11416225.40350373</v>
+        <v>-11416225.40350373</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2498732752.721816</v>
+        <v>-2498732752.721816</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1054595283.660928</v>
+        <v>-1054595283.660928</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3070160.742996323</v>
+        <v>-3070160.742996323</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>53649477.98022027</v>
+        <v>-53649477.98022027</v>
       </c>
       <c r="C4">
-        <v>8920553.342568636</v>
+        <v>-8920553.342568636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2242375342.844347</v>
+        <v>-2242375342.844347</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>987793604.1943512</v>
+        <v>-987793604.1943512</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1739177.634986118</v>
+        <v>-1739177.634986118</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>29127317.49465204</v>
+        <v>-29127317.49465204</v>
       </c>
       <c r="C4">
-        <v>5053294.65256426</v>
+        <v>-5053294.65256426</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1876642068.196029</v>
+        <v>-1876642068.196029</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>902106107.7891781</v>
+        <v>-902106107.7891781</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>848380.3901400048</v>
+        <v>-848380.3901400048</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12028721.82414747</v>
+        <v>-12028721.82414747</v>
       </c>
       <c r="C4">
-        <v>2465024.850017167</v>
+        <v>-2465024.850017167</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1551623915.971149</v>
+        <v>-1551623915.971149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>802906789.7727946</v>
+        <v>-802906789.7727946</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>765408.291004193</v>
+        <v>-765408.291004193</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9324220.963977674</v>
+        <v>-9324220.963977674</v>
       </c>
       <c r="C4">
-        <v>2223943.975677165</v>
+        <v>-2223943.975677165</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1337818877.775244</v>
+        <v>-1337818877.775244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>696077775.6080899</v>
+        <v>-696077775.6080899</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>729875.4414547791</v>
+        <v>-729875.4414547791</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8353941.248231651</v>
+        <v>-8353941.248231651</v>
       </c>
       <c r="C4">
-        <v>2120700.951499329</v>
+        <v>-2120700.951499329</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1134786401.924565</v>
+        <v>-1134786401.924565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>587540346.8137012</v>
+        <v>-587540346.8137012</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>556803.9049876875</v>
+        <v>-556803.9049876875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6193219.615112127</v>
+        <v>-6193219.615112127</v>
       </c>
       <c r="C4">
-        <v>1617830.25436826</v>
+        <v>-1617830.25436826</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>926622037.0253611</v>
+        <v>-926622037.0253611</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>482849220.7996446</v>
+        <v>-482849220.7996446</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>266658.6837538794</v>
+        <v>-266658.6837538794</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2813874.874594536</v>
+        <v>-2813874.874594536</v>
       </c>
       <c r="C4">
-        <v>774794.2898794571</v>
+        <v>-774794.2898794571</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>722264279.7112693</v>
+        <v>-722264279.7112693</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>386816818.2827846</v>
+        <v>-386816818.2827846</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>49710.97347305168</v>
+        <v>-49710.97347305168</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>530812.722552861</v>
+        <v>-530812.722552861</v>
       </c>
       <c r="C4">
-        <v>144438.4928668548</v>
+        <v>-144438.4928668548</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>549928136.2197152</v>
+        <v>-549928136.2197152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>303150124.4148734</v>
+        <v>-303150124.4148734</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7736.842659080366</v>
+        <v>-7736.842659080366</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>497948.1620637666</v>
+        <v>-497948.1620637666</v>
       </c>
       <c r="C4">
-        <v>22479.90363398039</v>
+        <v>-22479.90363398039</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>424651773.5207087</v>
+        <v>-424651773.5207087</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>234145385.3730462</v>
+        <v>-234145385.3730462</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>87.07549025660614</v>
+        <v>-87.07549025660614</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>48.44909287088549</v>
+        <v>-48.44909287088549</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>14824.17622688995</v>
+        <v>-14824.17622688995</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1232986.062422904</v>
+        <v>-1232986.062422904</v>
       </c>
       <c r="C4">
-        <v>43072.61601636865</v>
+        <v>-43072.61601636865</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>333862256.0526412</v>
+        <v>-333862256.0526412</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>180540661.888562</v>
+        <v>-180540661.888562</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>43365.30028749558</v>
+        <v>-43365.30028749558</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2607016.643724347</v>
+        <v>-2607016.643724347</v>
       </c>
       <c r="C4">
-        <v>126000.7233541696</v>
+        <v>-126000.7233541696</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>274655722.9136111</v>
+        <v>-274655722.9136111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>141617265.1360752</v>
+        <v>-141617265.1360752</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>117324.588373116</v>
+        <v>-117324.588373116</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4655317.526872786</v>
+        <v>-4655317.526872786</v>
       </c>
       <c r="C4">
-        <v>340894.2842373329</v>
+        <v>-340894.2842373329</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>244604845.0243893</v>
+        <v>-244604845.0243893</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115558026.4129118</v>
+        <v>-115558026.4129118</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>270677.3684894324</v>
+        <v>-270677.3684894324</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7223473.232107574</v>
+        <v>-7223473.232107574</v>
       </c>
       <c r="C4">
-        <v>786470.8418750636</v>
+        <v>-786470.8418750636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>239084158.9771962</v>
+        <v>-239084158.9771962</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99960405.50630324</v>
+        <v>-99960405.50630324</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>492765.6160558204</v>
+        <v>-492765.6160558204</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9939472.274075229</v>
+        <v>-9939472.274075229</v>
       </c>
       <c r="C4">
-        <v>1431762.807024761</v>
+        <v>-1431762.807024761</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>250643173.2307304</v>
+        <v>-250643173.2307304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92337653.10231739</v>
+        <v>-92337653.10231739</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>692627.853731184</v>
+        <v>-692627.853731184</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12475866.69142111</v>
+        <v>-12475866.69142111</v>
       </c>
       <c r="C4">
-        <v>2012475.64312474</v>
+        <v>-2012475.64312474</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>270684342.6479713</v>
+        <v>-270684342.6479713</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>90465379.67565598</v>
+        <v>-90465379.67565598</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>823144.3225907424</v>
+        <v>-823144.3225907424</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14718215.17292815</v>
+        <v>-14718215.17292815</v>
       </c>
       <c r="C4">
-        <v>2391699.801078473</v>
+        <v>-2391699.801078473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>293961039.7729461</v>
+        <v>-293961039.7729461</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92525370.02704906</v>
+        <v>-92525370.02704906</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>852272.2299714461</v>
+        <v>-852272.2299714461</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15254287.24975862</v>
+        <v>-15254287.24975862</v>
       </c>
       <c r="C4">
-        <v>2476332.845826931</v>
+        <v>-2476332.845826931</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>306805531.6122776</v>
+        <v>-306805531.6122776</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>97096300.02062544</v>
+        <v>-97096300.02062544</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>650801.2566424061</v>
+        <v>-650801.2566424061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11553629.34875101</v>
+        <v>-11553629.34875101</v>
       </c>
       <c r="C4">
-        <v>1890945.722803882</v>
+        <v>-1890945.722803882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>285594587.4258181</v>
+        <v>-285594587.4258181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103081149.2941792</v>
+        <v>-103081149.2941792</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>297201.9603128059</v>
+        <v>-297201.9603128059</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5187366.246086466</v>
+        <v>-5187366.246086466</v>
       </c>
       <c r="C4">
-        <v>863539.7825779336</v>
+        <v>-863539.7825779336</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>242212209.1334605</v>
+        <v>-242212209.1334605</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>109636020.4700854</v>
+        <v>-109636020.4700854</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.046364942423639E-12</v>
+        <v>-5.046364942423639E-12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.529470475545718E-09</v>
+        <v>-3.529470475545718E-09</v>
       </c>
       <c r="C4">
-        <v>1.466254421943545E-11</v>
+        <v>-1.466254421943545E-11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>284.7889001736999</v>
+        <v>-284.7889001736999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>158.4574928167979</v>
+        <v>-158.4574928167979</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>83837.16332798573</v>
+        <v>-83837.16332798573</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1417965.233839579</v>
+        <v>-1417965.233839579</v>
       </c>
       <c r="C4">
-        <v>243594.3750707491</v>
+        <v>-243594.3750707491</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>221101079.0834667</v>
+        <v>-221101079.0834667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116116648.8500986</v>
+        <v>-116116648.8500986</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>80337.72902378971</v>
+        <v>-80337.72902378971</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1374628.722031009</v>
+        <v>-1374628.722031009</v>
       </c>
       <c r="C4">
-        <v>233426.5392495767</v>
+        <v>-233426.5392495767</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>231330034.3631418</v>
+        <v>-231330034.3631418</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>122031727.3410222</v>
+        <v>-122031727.3410222</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>185011.0764349389</v>
+        <v>-185011.0764349389</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3177645.868121614</v>
+        <v>-3177645.868121614</v>
       </c>
       <c r="C4">
-        <v>537561.8133574359</v>
+        <v>-537561.8133574359</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>255985131.7648519</v>
+        <v>-255985131.7648519</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>126996188.3545188</v>
+        <v>-126996188.3545188</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>340648.1122743373</v>
+        <v>-340648.1122743373</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5852198.224420589</v>
+        <v>-5852198.224420589</v>
       </c>
       <c r="C4">
-        <v>989775.4257722833</v>
+        <v>-989775.4257722833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>285975576.0391324</v>
+        <v>-285975576.0391324</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>130692970.6087512</v>
+        <v>-130692970.6087512</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>393845.4843073293</v>
+        <v>-393845.4843073293</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6764670.640414359</v>
+        <v>-6764670.640414359</v>
       </c>
       <c r="C4">
-        <v>1144343.87825065</v>
+        <v>-1144343.87825065</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>297834322.9417213</v>
+        <v>-297834322.9417213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>132858107.3191835</v>
+        <v>-132858107.3191835</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>270311.1493416221</v>
+        <v>-270311.1493416221</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4620854.62753291</v>
+        <v>-4620854.62753291</v>
       </c>
       <c r="C4">
-        <v>785406.768128904</v>
+        <v>-785406.768128904</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>279939231.429844</v>
+        <v>-279939231.429844</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>133297077.7028043</v>
+        <v>-133297077.7028043</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>124102.3289859083</v>
+        <v>-124102.3289859083</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2088153.249492908</v>
+        <v>-2088153.249492908</v>
       </c>
       <c r="C4">
-        <v>360587.4539895785</v>
+        <v>-360587.4539895785</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>255397934.6503243</v>
+        <v>-255397934.6503243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>131927450.1536295</v>
+        <v>-131927450.1536295</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>90665.3154642884</v>
+        <v>-90665.3154642884</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1496712.689247307</v>
+        <v>-1496712.689247307</v>
       </c>
       <c r="C4">
-        <v>263434.0188099286</v>
+        <v>-263434.0188099286</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>244694123.0608765</v>
+        <v>-244694123.0608765</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>128831169.0464329</v>
+        <v>-128831169.0464329</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>195756.3976924364</v>
+        <v>-195756.3976924364</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3253739.276771543</v>
+        <v>-3253739.276771543</v>
       </c>
       <c r="C4">
-        <v>568783.0488185454</v>
+        <v>-568783.0488185454</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>251944026.9927803</v>
+        <v>-251944026.9927803</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>124293001.9674314</v>
+        <v>-124293001.9674314</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>372188.6418164433</v>
+        <v>-372188.6418164433</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6326649.007430193</v>
+        <v>-6326649.007430193</v>
       </c>
       <c r="C4">
-        <v>1081418.502401107</v>
+        <v>-1081418.502401107</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>268841067.754577</v>
+        <v>-268841067.754577</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>118801943.9185052</v>
+        <v>-118801943.9185052</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.182013449806017E-10</v>
+        <v>-3.182013449806017E-10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.625881431594716E-07</v>
+        <v>-1.625881431594716E-07</v>
       </c>
       <c r="C4">
-        <v>9.245548716144021E-10</v>
+        <v>-9.245548716144021E-10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>813.2768131619089</v>
+        <v>-813.2768131619089</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>452.5099276095843</v>
+        <v>-452.5099276095843</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>473173.7324371261</v>
+        <v>-473173.7324371261</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8490773.958672283</v>
+        <v>-8490773.958672283</v>
       </c>
       <c r="C4">
-        <v>1374837.304573254</v>
+        <v>-1374837.304573254</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>276703134.3111335</v>
+        <v>-276703134.3111335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113001700.347627</v>
+        <v>-113001700.347627</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>426026.8401179364</v>
+        <v>-426026.8401179364</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8404488.511554029</v>
+        <v>-8404488.511554029</v>
       </c>
       <c r="C4">
-        <v>1237848.917620195</v>
+        <v>-1237848.917620195</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>265210488.4282837</v>
+        <v>-265210488.4282837</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>107593873.2506118</v>
+        <v>-107593873.2506118</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>362305.1655838839</v>
+        <v>-362305.1655838839</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7772951.691210297</v>
+        <v>-7772951.691210297</v>
       </c>
       <c r="C4">
-        <v>1052701.414169268</v>
+        <v>-1052701.414169268</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>251178267.0844418</v>
+        <v>-251178267.0844418</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103217038.9624802</v>
+        <v>-103217038.9624802</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>380655.713763813</v>
+        <v>-380655.713763813</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8080760.656734565</v>
+        <v>-8080760.656734565</v>
       </c>
       <c r="C4">
-        <v>1106020.135111766</v>
+        <v>-1106020.135111766</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>248699276.9308432</v>
+        <v>-248699276.9308432</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>100336817.0268053</v>
+        <v>-100336817.0268053</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>466441.7582144608</v>
+        <v>-466441.7582144608</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9268754.568413151</v>
+        <v>-9268754.568413151</v>
       </c>
       <c r="C4">
-        <v>1355277.112068325</v>
+        <v>-1355277.112068325</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>257391661.6200847</v>
+        <v>-257391661.6200847</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99178917.53498048</v>
+        <v>-99178917.53498048</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>535603.3084929236</v>
+        <v>-535603.3084929236</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10246310.48919195</v>
+        <v>-10246310.48919195</v>
       </c>
       <c r="C4">
-        <v>1556230.531175511</v>
+        <v>-1556230.531175511</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>267194414.2189255</v>
+        <v>-267194414.2189255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99719907.0650401</v>
+        <v>-99719907.0650401</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>567769.0727536572</v>
+        <v>-567769.0727536572</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10702215.3869557</v>
+        <v>-10702215.3869557</v>
       </c>
       <c r="C4">
-        <v>1649690.268274594</v>
+        <v>-1649690.268274594</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>274920670.4810297</v>
+        <v>-274920670.4810297</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101728600.5447236</v>
+        <v>-101728600.5447236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>592353.370316548</v>
+        <v>-592353.370316548</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10865710.35165107</v>
+        <v>-10865710.35165107</v>
       </c>
       <c r="C4">
-        <v>1721121.556782738</v>
+        <v>-1721121.556782738</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>282297984.3147579</v>
+        <v>-282297984.3147579</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104836216.0370678</v>
+        <v>-104836216.0370678</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>625669.8301137473</v>
+        <v>-625669.8301137473</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10939352.21968183</v>
+        <v>-10939352.21968183</v>
       </c>
       <c r="C4">
-        <v>1817924.715211637</v>
+        <v>-1817924.715211637</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>290428733.8834999</v>
+        <v>-290428733.8834999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>108611330.7288978</v>
+        <v>-108611330.7288978</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>648500.7007762477</v>
+        <v>-648500.7007762477</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10891584.29004987</v>
+        <v>-10891584.29004987</v>
       </c>
       <c r="C4">
-        <v>1884261.306892291</v>
+        <v>-1884261.306892291</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>297842443.3157194</v>
+        <v>-297842443.3157194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>112623247.0081379</v>
+        <v>-112623247.0081379</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-300597185.8741556</v>
+        <v>-300597185.8741555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-296289626.1066293</v>
+        <v>-296289626.1066294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-68343063.31331737</v>
+        <v>-68343063.31331739</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-89179111.04986022</v>
+        <v>-89179111.04986024</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-334085716.730737</v>
+        <v>-334085716.7307369</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-469139986.0902363</v>
+        <v>-469139986.0902364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-847938034.7792233</v>
+        <v>-847938034.7792234</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2693964567.340743</v>
+        <v>-2693964567.340742</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2637391018.485797</v>
+        <v>-2637391018.485798</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-250643173.2307304</v>
+        <v>-250643173.2307305</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-306805531.6122776</v>
+        <v>-306805531.6122775</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-282297984.3147579</v>
+        <v>-282297984.314758</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-290428733.8834999</v>
+        <v>-290428733.8835</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300597185.8741555</v>
+        <v>-300597185.8741556</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296289626.1066294</v>
+        <v>-296289626.1066293</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-818895.958905185</v>
+        <v>-818895.9589051851</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68343063.31331739</v>
+        <v>-68343063.31331737</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-89179111.04986024</v>
+        <v>-89179111.04986022</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-334085716.7307369</v>
+        <v>-334085716.730737</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-363748238.1360358</v>
+        <v>-363748238.1360357</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-847938034.7792234</v>
+        <v>-847938034.7792233</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2669462722.25001</v>
+        <v>-2669462722.250011</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2637391018.485798</v>
+        <v>-2637391018.485797</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-333862256.0526413</v>
+        <v>-333862256.0526412</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-239084158.9771963</v>
+        <v>-239084158.9771962</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250643173.2307305</v>
+        <v>-250643173.2307304</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255985131.7648518</v>
+        <v>-255985131.7648519</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290428733.8835</v>
+        <v>-290428733.8834999</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -904,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300597185.8741556</v>
+        <v>-300597185.8741555</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1047,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296289626.1066293</v>
+        <v>-296289626.1066294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2334,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-818895.9589051851</v>
+        <v>-818895.958905185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3764,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68343063.31331737</v>
+        <v>-68343063.31331739</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4193,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-89179111.04986022</v>
+        <v>-89179111.04986024</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6052,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-334085716.730737</v>
+        <v>-334085716.7307369</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6195,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-363748238.1360357</v>
+        <v>-363748238.1360358</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6910,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-847938034.7792233</v>
+        <v>-847938034.7792234</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8197,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2669462722.250011</v>
+        <v>-2669462722.25001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8626,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2637391018.485797</v>
+        <v>-2637391018.485798</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10485,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-333862256.0526412</v>
+        <v>-333862256.0526413</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10914,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-239084158.9771962</v>
+        <v>-239084158.9771963</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11057,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250643173.2307304</v>
+        <v>-250643173.2307305</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12344,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255985131.7648519</v>
+        <v>-255985131.7648518</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14775,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290428733.8834999</v>
+        <v>-290428733.8835</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.023014053320542E-08</v>
+        <v>-1.023014053320542E-14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.387969090256192E-06</v>
+        <v>-4.387969090256195E-12</v>
       </c>
       <c r="E7">
-        <v>-2.972434408739419E-08</v>
+        <v>-2.972434408739418E-14</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2079.260599389473</v>
+        <v>-0.002079260599389472</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1156.907506550721</v>
+        <v>-0.001156907506550721</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-621489.8681049421</v>
+        <v>-0.6214898681049416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10408523.99669087</v>
+        <v>-10.40852399669095</v>
       </c>
       <c r="E7">
-        <v>-1805779.561523995</v>
+        <v>-1.805779561523993</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300597185.8741555</v>
+        <v>-300.5971858741563</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116487351.4074285</v>
+        <v>-116.4873514074286</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-537230.1408199621</v>
+        <v>-0.5372301408199589</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9262623.736910585</v>
+        <v>-9.26262373691061</v>
       </c>
       <c r="E7">
-        <v>-1560957.399169595</v>
+        <v>-1.560957399169586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296289626.1066294</v>
+        <v>-296.2896261066296</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119892977.8171535</v>
+        <v>-119.8929778171535</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.215162447856165E-07</v>
+        <v>-2.215162447856164E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.022021299509037E-05</v>
+        <v>-8.022021299509043E-11</v>
       </c>
       <c r="E7">
-        <v>-6.436299735651823E-07</v>
+        <v>-6.436299735651821E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4853.08129754584</v>
+        <v>-0.004853081297545839</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2700.270272298681</v>
+        <v>-0.002700270272298681</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.497628308470739E-06</v>
+        <v>-3.497628308470739E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.001080182191698713</v>
+        <v>-1.080182191698713E-09</v>
       </c>
       <c r="E7">
-        <v>-1.016258838217733E-05</v>
+        <v>-1.016258838217733E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10555.26533687108</v>
+        <v>-0.01055526533687108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5872.980351863163</v>
+        <v>-0.005872980351863163</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.252313574295065E-05</v>
+        <v>-4.252313574295065E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.01135518358718843</v>
+        <v>-1.135518358718845E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0001235537590510884</v>
+        <v>-1.235537590510884E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-21763.66992321113</v>
+        <v>-0.02176366992321114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12109.33163104561</v>
+        <v>-0.01210933163104562</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0004150714398306306</v>
+        <v>-4.150714398306304E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0972890808513146</v>
+        <v>-9.728908085131464E-08</v>
       </c>
       <c r="E7">
-        <v>-0.00120601728376355</v>
+        <v>-1.20601728376355E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-43087.0585944147</v>
+        <v>-0.04308705859441472</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-23973.3811184752</v>
+        <v>-0.02397338111847521</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.003362517070464372</v>
+        <v>-3.362517070464371E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.7019524660190595</v>
+        <v>-7.019524660190598E-07</v>
       </c>
       <c r="E7">
-        <v>-0.009770013821198473</v>
+        <v>-9.77001382119847E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-82578.4824950419</v>
+        <v>-0.08257848249504192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-45944.03857759073</v>
+        <v>-0.04594403857759074</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0232167981201681</v>
+        <v>-2.321679812016811E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.374938747391522</v>
+        <v>-4.374938747391524E-06</v>
       </c>
       <c r="E7">
-        <v>-0.06745792921333529</v>
+        <v>-6.745792921333529E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-153638.6096577336</v>
+        <v>-0.1536386096577336</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-85466.90334455948</v>
+        <v>-0.08546690334455949</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1396063654892676</v>
+        <v>-1.396063654892676E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-24.03372992963008</v>
+        <v>-2.403372992963009E-05</v>
       </c>
       <c r="E7">
-        <v>-0.4056354486161953</v>
+        <v>-4.056354486161951E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277210.592280727</v>
+        <v>-0.2772105922807271</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-154141.1322950742</v>
+        <v>-0.1541411322950743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.744130578309839</v>
+        <v>-7.441305783098388E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-118.2836055733992</v>
+        <v>-0.0001182836055733992</v>
       </c>
       <c r="E7">
-        <v>-2.162120186310165</v>
+        <v>-2.162120186310165E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-484245.3256867185</v>
+        <v>-0.4842453256867184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-268943.9447439528</v>
+        <v>-0.2689439447439528</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.567650756796994</v>
+        <v>-3.567650756796994E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-528.5197956889974</v>
+        <v>-0.0005285197956889974</v>
       </c>
       <c r="E7">
-        <v>-10.3660431970096</v>
+        <v>-1.036604319700959E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-818895.958905185</v>
+        <v>-0.818895958905185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-453435.8320726518</v>
+        <v>-0.4534358320726517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-15.57380613091929</v>
+        <v>-1.557380613091929E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2167.67771219191</v>
+        <v>-0.00216767771219191</v>
       </c>
       <c r="E7">
-        <v>-45.2507148541357</v>
+        <v>-4.525071485413569E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1344210.779309631</v>
+        <v>-1.344210779309631</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-738885.0709531244</v>
+        <v>-0.7388850709531243</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-62.53209559513608</v>
+        <v>-6.253209559513607E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8234.280470843885</v>
+        <v>-0.008234280470843887</v>
       </c>
       <c r="E7">
-        <v>-181.69110384579</v>
+        <v>-0.00018169110384579</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2155991.419888539</v>
+        <v>-2.15599141988854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1165221.953183086</v>
+        <v>-1.165221953183087</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-232.8778188034235</v>
+        <v>-0.0002328778188034235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-29171.88231429973</v>
+        <v>-0.02917188231429972</v>
       </c>
       <c r="E7">
-        <v>-676.6417718277302</v>
+        <v>-0.0006766417718277303</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3421355.033734956</v>
+        <v>-3.421355033734956</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1781705.280761176</v>
+        <v>-1.781705280761176</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-809.4106048238106</v>
+        <v>-0.0008094106048238107</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-96763.56899673237</v>
+        <v>-0.0967635689967324</v>
       </c>
       <c r="E7">
-        <v>-2351.795583616513</v>
+        <v>-0.002351795583616513</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5485493.036697092</v>
+        <v>-5.485493036697092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2647145.154996484</v>
+        <v>-2.647145154996485</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2632.608756106366</v>
+        <v>-0.002632608756106366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-299840.0167481017</v>
+        <v>-0.2998400167481017</v>
       </c>
       <c r="E7">
-        <v>-7649.217355323414</v>
+        <v>-0.007649217355323413</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9141031.783642756</v>
+        <v>-9.141031783642756</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3829450.203243584</v>
+        <v>-3.829450203243583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-7972.732375716274</v>
+        <v>-0.007972732375716277</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-853619.9561753162</v>
+        <v>-0.8536199561753163</v>
       </c>
       <c r="E7">
-        <v>-23165.29667244403</v>
+        <v>-0.02316529667244403</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-16154124.99268527</v>
+        <v>-16.15412499268528</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5404188.640691504</v>
+        <v>-5.404188640691506</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-21976.46454028312</v>
+        <v>-0.02197646454028311</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2126246.712919038</v>
+        <v>-2.126246712919039</v>
       </c>
       <c r="E7">
-        <v>-63854.05867099203</v>
+        <v>-0.06385405867099202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-29488819.05750207</v>
+        <v>-29.48881905750208</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7451855.595590254</v>
+        <v>-7.451855595590257</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-51914.90443700419</v>
+        <v>-0.05191490443700419</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4176299.142618021</v>
+        <v>-4.17629914261802</v>
       </c>
       <c r="E7">
-        <v>-150842.1587896005</v>
+        <v>-0.1508421587896005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-49896089.19248102</v>
+        <v>-49.89608919248102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10053741.29174166</v>
+        <v>-10.05374129174166</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-92919.36798198729</v>
+        <v>-0.0929193679819873</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5767087.485053484</v>
+        <v>-5.767087485053482</v>
       </c>
       <c r="E7">
-        <v>-269983.3161934462</v>
+        <v>-0.2699833161934462</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68343063.31331739</v>
+        <v>-68.34306331331737</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13286270.29072706</v>
+        <v>-13.28627029072706</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-105213.5558173688</v>
+        <v>-0.1052135558173688</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6182363.590942079</v>
+        <v>-6.182363590942077</v>
       </c>
       <c r="E7">
-        <v>-305704.8850524258</v>
+        <v>-0.3057048850524258</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78739132.65100463</v>
+        <v>-78.73913265100461</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-17213695.38910869</v>
+        <v>-17.21369538910869</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.005828152809110678</v>
+        <v>-5.828152809110676E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.003242803639487899</v>
+        <v>-3.242803639487898E-09</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-70212.83861445691</v>
+        <v>-0.0702128386144569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6578720.512841512</v>
+        <v>-6.578720512841511</v>
       </c>
       <c r="E7">
-        <v>-204008.0062981171</v>
+        <v>-0.2040080062981171</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-89179111.04986024</v>
+        <v>-89.17911104986023</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21879898.87982713</v>
+        <v>-21.87989887982714</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-49898.95502944766</v>
+        <v>-0.04989895502944765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7228049.949549552</v>
+        <v>-7.228049949549549</v>
       </c>
       <c r="E7">
-        <v>-144984.685604507</v>
+        <v>-0.144984685604507</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-103182216.5268677</v>
+        <v>-103.1822165268677</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-27300438.42960649</v>
+        <v>-27.30043842960648</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-80339.10577666681</v>
+        <v>-0.08033910577666679</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7912321.755426957</v>
+        <v>-7.912321755426958</v>
       </c>
       <c r="E7">
-        <v>-233430.5394953318</v>
+        <v>-0.2334305394953317</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-119991284.049724</v>
+        <v>-119.991284049724</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-33456007.37948038</v>
+        <v>-33.45600737948039</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-125335.241918018</v>
+        <v>-0.125335241918018</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8652847.743933678</v>
+        <v>-8.652847743933679</v>
       </c>
       <c r="E7">
-        <v>-364169.7633532549</v>
+        <v>-0.3641697633532548</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-138782645.0013851</v>
+        <v>-138.7826450013851</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-40289280.85375486</v>
+        <v>-40.28928085375487</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-177172.6845291316</v>
+        <v>-0.1771726845291316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9218747.399766553</v>
+        <v>-9.218747399766558</v>
       </c>
       <c r="E7">
-        <v>-514786.8517287261</v>
+        <v>-0.5147868517287261</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-157513926.2682168</v>
+        <v>-157.5139262682169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-47708150.90546677</v>
+        <v>-47.70815090546677</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-245207.1550296345</v>
+        <v>-0.2452071550296345</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9849513.219933243</v>
+        <v>-9.849513219933248</v>
       </c>
       <c r="E7">
-        <v>-712465.4666408688</v>
+        <v>-0.7124654666408688</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-177960941.7445076</v>
+        <v>-177.9609417445077</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-55599223.63749462</v>
+        <v>-55.59922363749462</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-293714.1293675324</v>
+        <v>-0.2937141293675326</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9941011.644566307</v>
+        <v>-9.941011644566315</v>
       </c>
       <c r="E7">
-        <v>-853405.6610769179</v>
+        <v>-0.8534056610769181</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-194644652.6118896</v>
+        <v>-194.6446526118897</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63855818.41873296</v>
+        <v>-63.85581841873297</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-329667.8331089359</v>
+        <v>-0.329667833108936</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9558606.789828591</v>
+        <v>-9.558606789828598</v>
       </c>
       <c r="E7">
-        <v>-957871.504704078</v>
+        <v>-0.9578715047040782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-208115400.5269404</v>
+        <v>-208.1154005269404</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-72423957.901803</v>
+        <v>-72.42395790180302</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-475557.0253315495</v>
+        <v>-0.4755570253315497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9568268.507578172</v>
+        <v>-9.568268507578177</v>
       </c>
       <c r="E7">
-        <v>-1381762.118345356</v>
+        <v>-1.381762118345357</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-227792571.9041317</v>
+        <v>-227.7925719041317</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81367209.95642519</v>
+        <v>-81.36720995642517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-764085.6799859026</v>
+        <v>-0.7640856799859028</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9406825.732777515</v>
+        <v>-9.406825732777516</v>
       </c>
       <c r="E7">
-        <v>-2220101.042642782</v>
+        <v>-2.220101042642782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250814169.6710061</v>
+        <v>-250.8141696710061</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90946127.37154475</v>
+        <v>-90.94612737154473</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.3568988418686358</v>
+        <v>-3.568988418686356E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1985797046246681</v>
+        <v>-1.98579704624668E-07</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1071210.848318351</v>
+        <v>-1.071210848318351</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9341355.011746626</v>
+        <v>-9.34135501174662</v>
       </c>
       <c r="E7">
-        <v>-3112473.356765051</v>
+        <v>-3.112473356765051</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277100830.1039306</v>
+        <v>-277.1008301039305</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101700279.3594383</v>
+        <v>-101.7002793594384</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1379649.196584175</v>
+        <v>-1.379649196584174</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9248299.168016449</v>
+        <v>-9.248299168016446</v>
       </c>
       <c r="E7">
-        <v>-4008661.20128611</v>
+        <v>-4.008661201286108</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306917804.4470043</v>
+        <v>-306.9178044470042</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114513362.3679365</v>
+        <v>-114.5133623679366</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1427952.483564505</v>
+        <v>-1.427952483564505</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8841077.452435959</v>
+        <v>-8.841077452435957</v>
       </c>
       <c r="E7">
-        <v>-4149009.568749407</v>
+        <v>-4.149009568749407</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-334085716.7307369</v>
+        <v>-334.0857167307367</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130637313.4783591</v>
+        <v>-130.6373134783591</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1253244.213447413</v>
+        <v>-1.253244213447413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8311645.888759891</v>
+        <v>-8.311645888759887</v>
       </c>
       <c r="E7">
-        <v>-3641383.23468118</v>
+        <v>-3.64138323468118</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-363748238.1360358</v>
+        <v>-363.7482381360359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-151652062.4131939</v>
+        <v>-151.6520624131941</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1227889.207794963</v>
+        <v>-1.227889207794963</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7555254.387366435</v>
+        <v>-7.555254387366428</v>
       </c>
       <c r="E7">
-        <v>-3567712.603285159</v>
+        <v>-3.567712603285158</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-407371999.5036933</v>
+        <v>-407.3719995036932</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-179346725.1422881</v>
+        <v>-179.3467251422882</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1128931.520355846</v>
+        <v>-1.128931520355846</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7438112.571432175</v>
+        <v>-7.43811257143217</v>
       </c>
       <c r="E7">
-        <v>-3280184.55398949</v>
+        <v>-3.280184553989489</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-469139986.0902363</v>
+        <v>-469.139986090236</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-215525173.6961772</v>
+        <v>-215.525173696177</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-979385.9804810027</v>
+        <v>-0.9793859804810032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8557335.670594694</v>
+        <v>-8.557335670594686</v>
       </c>
       <c r="E7">
-        <v>-2845670.182505859</v>
+        <v>-2.845670182505861</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-556804958.2883157</v>
+        <v>-556.8049582883159</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-261759040.7581686</v>
+        <v>-261.7590407581688</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-833678.7068487682</v>
+        <v>-0.833678706848768</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11508755.358347</v>
+        <v>-11.50875535834699</v>
       </c>
       <c r="E7">
-        <v>-2422308.145256936</v>
+        <v>-2.422308145256935</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-677982838.9983189</v>
+        <v>-677.9828389983189</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-319125785.9093431</v>
+        <v>-319.1257859093432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-925681.534331348</v>
+        <v>-0.9256815343313477</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-17519082.62972273</v>
+        <v>-17.51908262972272</v>
       </c>
       <c r="E7">
-        <v>-2689628.392933777</v>
+        <v>-2.689628392933776</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-847938034.7792234</v>
+        <v>-847.9380347792234</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-387971078.4235833</v>
+        <v>-387.9710784235833</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1433009.911204391</v>
+        <v>-1.433009911204391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26569146.02023208</v>
+        <v>-26.56914602023209</v>
       </c>
       <c r="E7">
-        <v>-4163704.256361676</v>
+        <v>-4.163704256361675</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1069804343.396348</v>
+        <v>-1069.804343396348</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-467723304.7484853</v>
+        <v>-467.7233047484854</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.930882830129947</v>
+        <v>-3.930882830129946E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.1871563024256</v>
+        <v>-2.187156302425599E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2040836.48753299</v>
+        <v>-2.040836487532989</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-37145918.71857047</v>
+        <v>-37.14591871857047</v>
       </c>
       <c r="E7">
-        <v>-5929784.227757046</v>
+        <v>-5.929784227757043</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1321987946.240841</v>
+        <v>-1321.987946240841</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-556772052.2575649</v>
+        <v>-556.7720522575648</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2847165.513628735</v>
+        <v>-2.847165513628735</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-51773263.97694762</v>
+        <v>-51.7732639769476</v>
       </c>
       <c r="E7">
-        <v>-8272626.08232672</v>
+        <v>-8.272626082326719</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1620478441.904168</v>
+        <v>-1620.478441904168</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-652414302.3017101</v>
+        <v>-652.4143023017104</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4044583.912380546</v>
+        <v>-4.044583912380546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73294153.59178126</v>
+        <v>-73.29415359178125</v>
       </c>
       <c r="E7">
-        <v>-11751803.75203202</v>
+        <v>-11.75180375203202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1983971159.355517</v>
+        <v>-1983.971159355517</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-750878369.6028527</v>
+        <v>-750.8783696028523</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4870046.43777597</v>
+        <v>-4.87004643777597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87870031.79803012</v>
+        <v>-87.87003179803014</v>
       </c>
       <c r="E7">
-        <v>-14150239.24335904</v>
+        <v>-14.15023924335904</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2284219385.447958</v>
+        <v>-2284.219385447957</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-847450417.698794</v>
+        <v>-847.4504176987933</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4954739.327215167</v>
+        <v>-4.954739327215169</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-89156790.55989209</v>
+        <v>-89.1567905598921</v>
       </c>
       <c r="E7">
-        <v>-14396319.98675402</v>
+        <v>-14.39631998675402</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2456158382.716143</v>
+        <v>-2456.158382716143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-936735961.9954327</v>
+        <v>-936.7359619954329</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4889294.783160634</v>
+        <v>-4.889294783160635</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87992039.72055167</v>
+        <v>-87.9920397205517</v>
       </c>
       <c r="E7">
-        <v>-14206166.57294651</v>
+        <v>-14.20616657294652</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2583248278.990799</v>
+        <v>-2583.2482789908</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1013074811.918623</v>
+        <v>-1013.074811918623</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4775353.407675251</v>
+        <v>-4.775353407675252</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85902543.30235392</v>
+        <v>-85.90254330235395</v>
       </c>
       <c r="E7">
-        <v>-13875102.43558443</v>
+        <v>-13.87510243558443</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2669462722.25001</v>
+        <v>-2669.462722250011</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1071090179.519302</v>
+        <v>-1071.090179519302</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4604197.830729514</v>
+        <v>-4.604197830729516</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-82479582.74038038</v>
+        <v>-82.47958274038041</v>
       </c>
       <c r="E7">
-        <v>-13377798.68446798</v>
+        <v>-13.37779868446798</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2703549648.973216</v>
+        <v>-2703.549648973217</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1106303457.147646</v>
+        <v>-1106.303457147646</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4451709.689626601</v>
+        <v>-4.451709689626602</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79365961.11558114</v>
+        <v>-79.36596111558114</v>
       </c>
       <c r="E7">
-        <v>-12934734.39217619</v>
+        <v>-12.9347343921762</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2693964567.340743</v>
+        <v>-2693.964567340744</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1115706079.043343</v>
+        <v>-1115.706079043343</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4303705.303948736</v>
+        <v>-4.303705303948738</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-76432831.95801996</v>
+        <v>-76.43283195801993</v>
       </c>
       <c r="E7">
-        <v>-12504697.94526203</v>
+        <v>-12.50469794526204</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2637391018.485798</v>
+        <v>-2637.391018485797</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1098168640.726398</v>
+        <v>-1098.168640726397</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-21.92435507587474</v>
+        <v>-2.192435507587474E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12.19878420523436</v>
+        <v>-1.219878420523436E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3929088.894046354</v>
+        <v>-3.929088894046354</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-69428085.37009783</v>
+        <v>-69.42808537009783</v>
       </c>
       <c r="E7">
-        <v>-11416225.40350373</v>
+        <v>-11.41622540350373</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2498732752.721816</v>
+        <v>-2498.732752721816</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1054595283.660928</v>
+        <v>-1054.595283660928</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3070160.742996323</v>
+        <v>-3.070160742996322</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-53649477.98022027</v>
+        <v>-53.64947798022025</v>
       </c>
       <c r="E7">
-        <v>-8920553.342568636</v>
+        <v>-8.920553342568635</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2242375342.844347</v>
+        <v>-2242.375342844347</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-987793604.1943512</v>
+        <v>-987.7936041943516</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1739177.634986118</v>
+        <v>-1.739177634986117</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-29127317.49465204</v>
+        <v>-29.12731749465204</v>
       </c>
       <c r="E7">
-        <v>-5053294.65256426</v>
+        <v>-5.053294652564255</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1876642068.196029</v>
+        <v>-1876.64206819603</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-902106107.7891781</v>
+        <v>-902.1061077891783</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-848380.3901400048</v>
+        <v>-0.8483803901400008</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12028721.82414747</v>
+        <v>-12.02872182414753</v>
       </c>
       <c r="E7">
-        <v>-2465024.850017167</v>
+        <v>-2.465024850017155</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1551623915.971149</v>
+        <v>-1551.62391597115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-802906789.7727946</v>
+        <v>-802.9067897727949</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-765408.291004193</v>
+        <v>-0.7654082910041908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9324220.963977674</v>
+        <v>-9.324220963977707</v>
       </c>
       <c r="E7">
-        <v>-2223943.975677165</v>
+        <v>-2.223943975677159</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1337818877.775244</v>
+        <v>-1337.818877775244</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-696077775.6080899</v>
+        <v>-696.0777756080897</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-729875.4414547791</v>
+        <v>-0.7298754414547787</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8353941.248231651</v>
+        <v>-8.353941248231646</v>
       </c>
       <c r="E7">
-        <v>-2120700.951499329</v>
+        <v>-2.120700951499328</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1134786401.924565</v>
+        <v>-1134.786401924564</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-587540346.8137012</v>
+        <v>-587.5403468137011</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-556803.9049876875</v>
+        <v>-0.5568039049876882</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6193219.615112127</v>
+        <v>-6.1932196151121</v>
       </c>
       <c r="E7">
-        <v>-1617830.25436826</v>
+        <v>-1.617830254368261</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-926622037.0253611</v>
+        <v>-926.6220370253607</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-482849220.7996446</v>
+        <v>-482.8492207996445</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-266658.6837538794</v>
+        <v>-0.2666586837538806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2813874.874594536</v>
+        <v>-2.813874874594515</v>
       </c>
       <c r="E7">
-        <v>-774794.2898794571</v>
+        <v>-0.7747942898794604</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-722264279.7112693</v>
+        <v>-722.2642797112692</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-386816818.2827846</v>
+        <v>-386.8168182827847</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-49710.97347305168</v>
+        <v>-0.04971097347305062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-530812.722552861</v>
+        <v>-0.5308127225528885</v>
       </c>
       <c r="E7">
-        <v>-144438.4928668548</v>
+        <v>-0.1444384928668517</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-549928136.2197152</v>
+        <v>-549.9281362197153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-303150124.4148734</v>
+        <v>-303.1501244148733</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-7736.842659080366</v>
+        <v>-0.007736842659078815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-497948.1620637666</v>
+        <v>-0.4979481620638176</v>
       </c>
       <c r="E7">
-        <v>-22479.90363398039</v>
+        <v>-0.02247990363397588</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-424651773.5207087</v>
+        <v>-424.651773520709</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-234145385.3730462</v>
+        <v>-234.1453853730461</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-87.07549025660614</v>
+        <v>-8.707549025660613E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-48.44909287088549</v>
+        <v>-4.844909287088549E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-14824.17622688995</v>
+        <v>-0.01482417622688838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1232986.062422904</v>
+        <v>-1.232986062422979</v>
       </c>
       <c r="E7">
-        <v>-43072.61601636865</v>
+        <v>-0.04307261601636406</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-333862256.0526413</v>
+        <v>-333.8622560526417</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-180540661.888562</v>
+        <v>-180.540661888562</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-43365.30028749558</v>
+        <v>-0.04336530028749351</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2607016.643724347</v>
+        <v>-2.607016643724382</v>
       </c>
       <c r="E7">
-        <v>-126000.7233541696</v>
+        <v>-0.1260007233541635</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-274655722.9136111</v>
+        <v>-274.6557229136112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141617265.1360752</v>
+        <v>-141.6172651360751</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-117324.588373116</v>
+        <v>-0.1173245883731117</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4655317.526872786</v>
+        <v>-4.655317526872734</v>
       </c>
       <c r="E7">
-        <v>-340894.2842373329</v>
+        <v>-0.3408942842373202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-244604845.0243893</v>
+        <v>-244.6048450243888</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115558026.4129118</v>
+        <v>-115.5580264129118</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-270677.3684894324</v>
+        <v>-0.2706773684894259</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7223473.232107574</v>
+        <v>-7.223473232107551</v>
       </c>
       <c r="E7">
-        <v>-786470.8418750636</v>
+        <v>-0.7864708418750447</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-239084158.9771963</v>
+        <v>-239.0841589771959</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99960405.50630324</v>
+        <v>-99.96040550630319</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-492765.6160558204</v>
+        <v>-0.4927656160558163</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9939472.274075229</v>
+        <v>-9.939472274075268</v>
       </c>
       <c r="E7">
-        <v>-1431762.807024761</v>
+        <v>-1.431762807024749</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250643173.2307305</v>
+        <v>-250.6431732307306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92337653.10231739</v>
+        <v>-92.33765310231739</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-692627.853731184</v>
+        <v>-0.6926278537311833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12475866.69142111</v>
+        <v>-12.47586669142114</v>
       </c>
       <c r="E7">
-        <v>-2012475.64312474</v>
+        <v>-2.012475643124737</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270684342.6479713</v>
+        <v>-270.6843426479714</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90465379.67565598</v>
+        <v>-90.465379675656</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-823144.3225907424</v>
+        <v>-0.8231443225907435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14718215.17292815</v>
+        <v>-14.71821517292817</v>
       </c>
       <c r="E7">
-        <v>-2391699.801078473</v>
+        <v>-2.391699801078477</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293961039.7729461</v>
+        <v>-293.9610397729462</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92525370.02704906</v>
+        <v>-92.52537002704902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-852272.2299714461</v>
+        <v>-0.85227222997145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15254287.24975862</v>
+        <v>-15.25428724975862</v>
       </c>
       <c r="E7">
-        <v>-2476332.845826931</v>
+        <v>-2.476332845826942</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306805531.6122776</v>
+        <v>-306.8055316122775</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97096300.02062544</v>
+        <v>-97.09630002062545</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-650801.2566424061</v>
+        <v>-0.6508012566424112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11553629.34875101</v>
+        <v>-11.553629348751</v>
       </c>
       <c r="E7">
-        <v>-1890945.722803882</v>
+        <v>-1.890945722803897</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285594587.4258181</v>
+        <v>-285.594587425818</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103081149.2941792</v>
+        <v>-103.0811492941791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-297201.9603128059</v>
+        <v>-0.2972019603128109</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5187366.246086466</v>
+        <v>-5.187366246086436</v>
       </c>
       <c r="E7">
-        <v>-863539.7825779336</v>
+        <v>-0.8635397825779481</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-242212209.1334605</v>
+        <v>-242.2122091334604</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109636020.4700854</v>
+        <v>-109.6360204700854</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.046364942423639E-12</v>
+        <v>-5.046364942423638E-18</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.529470475545718E-09</v>
+        <v>-3.529470475545721E-15</v>
       </c>
       <c r="E7">
-        <v>-1.466254421943545E-11</v>
+        <v>-1.466254421943544E-17</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284.7889001736999</v>
+        <v>-0.0002847889001736999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-158.4574928167979</v>
+        <v>-0.0001584574928167979</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-83837.16332798573</v>
+        <v>-0.08383716332798716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1417965.233839579</v>
+        <v>-1.417965233839542</v>
       </c>
       <c r="E7">
-        <v>-243594.3750707491</v>
+        <v>-0.2435943750707532</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-221101079.0834667</v>
+        <v>-221.1010790834664</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116116648.8500986</v>
+        <v>-116.1166488500985</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-80337.72902378971</v>
+        <v>-0.0803377290237898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1374628.722031009</v>
+        <v>-1.374628722030997</v>
       </c>
       <c r="E7">
-        <v>-233426.5392495767</v>
+        <v>-0.233426539249577</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231330034.3631418</v>
+        <v>-231.3300343631416</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-122031727.3410222</v>
+        <v>-122.0317273410221</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-185011.0764349389</v>
+        <v>-0.185011076434939</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3177645.868121614</v>
+        <v>-3.1776458681216</v>
       </c>
       <c r="E7">
-        <v>-537561.8133574359</v>
+        <v>-0.537561813357436</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255985131.7648518</v>
+        <v>-255.9851317648516</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-126996188.3545188</v>
+        <v>-126.9961883545187</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-340648.1122743373</v>
+        <v>-0.3406481122743381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5852198.224420589</v>
+        <v>-5.852198224420571</v>
       </c>
       <c r="E7">
-        <v>-989775.4257722833</v>
+        <v>-0.9897754257722858</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285975576.0391324</v>
+        <v>-285.9755760391321</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130692970.6087512</v>
+        <v>-130.6929706087511</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-393845.4843073293</v>
+        <v>-0.3938454843073322</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6764670.640414359</v>
+        <v>-6.764670640414358</v>
       </c>
       <c r="E7">
-        <v>-1144343.87825065</v>
+        <v>-1.144343878250659</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297834322.9417213</v>
+        <v>-297.8343229417212</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-132858107.3191835</v>
+        <v>-132.8581073191833</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-270311.1493416221</v>
+        <v>-0.2703111493416238</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4620854.62753291</v>
+        <v>-4.620854627532944</v>
       </c>
       <c r="E7">
-        <v>-785406.768128904</v>
+        <v>-0.785406768128909</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-279939231.429844</v>
+        <v>-279.9392314298442</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-133297077.7028043</v>
+        <v>-133.2970777028042</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-124102.3289859083</v>
+        <v>-0.1241023289859076</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2088153.249492908</v>
+        <v>-2.088153249492937</v>
       </c>
       <c r="E7">
-        <v>-360587.4539895785</v>
+        <v>-0.3605874539895765</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255397934.6503243</v>
+        <v>-255.3979346503243</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131927450.1536295</v>
+        <v>-131.9274501536294</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-90665.3154642884</v>
+        <v>-0.09066531546428835</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1496712.689247307</v>
+        <v>-1.496712689247297</v>
       </c>
       <c r="E7">
-        <v>-263434.0188099286</v>
+        <v>-0.2634340188099285</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-244694123.0608765</v>
+        <v>-244.6941230608761</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128831169.0464329</v>
+        <v>-128.8311690464328</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-195756.3976924364</v>
+        <v>-0.1957563976924369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3253739.276771543</v>
+        <v>-3.253739276771511</v>
       </c>
       <c r="E7">
-        <v>-568783.0488185454</v>
+        <v>-0.5687830488185467</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251944026.9927803</v>
+        <v>-251.94402699278</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124293001.9674314</v>
+        <v>-124.2930019674314</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-372188.6418164433</v>
+        <v>-0.3721886418164447</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6326649.007430193</v>
+        <v>-6.326649007430158</v>
       </c>
       <c r="E7">
-        <v>-1081418.502401107</v>
+        <v>-1.081418502401111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268841067.754577</v>
+        <v>-268.8410677545768</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118801943.9185052</v>
+        <v>-118.8019439185052</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.182013449806017E-10</v>
+        <v>-3.182013449806016E-16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.625881431594716E-07</v>
+        <v>-1.625881431594717E-13</v>
       </c>
       <c r="E7">
-        <v>-9.245548716144021E-10</v>
+        <v>-9.245548716144016E-16</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-813.2768131619089</v>
+        <v>-0.0008132768131619092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-452.5099276095843</v>
+        <v>-0.0004525099276095844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-473173.7324371261</v>
+        <v>-0.4731737324371284</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8490773.958672283</v>
+        <v>-8.490773958672305</v>
       </c>
       <c r="E7">
-        <v>-1374837.304573254</v>
+        <v>-1.374837304573261</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276703134.3111335</v>
+        <v>-276.7031343111338</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113001700.347627</v>
+        <v>-113.001700347627</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-426026.8401179364</v>
+        <v>-0.4260268401179365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8404488.511554029</v>
+        <v>-8.404488511554094</v>
       </c>
       <c r="E7">
-        <v>-1237848.917620195</v>
+        <v>-1.237848917620195</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265210488.4282837</v>
+        <v>-265.2104884282842</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107593873.2506118</v>
+        <v>-107.5938732506119</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-362305.1655838839</v>
+        <v>-0.3623051655838808</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7772951.691210297</v>
+        <v>-7.772951691210315</v>
       </c>
       <c r="E7">
-        <v>-1052701.414169268</v>
+        <v>-1.052701414169259</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251178267.0844418</v>
+        <v>-251.1782670844419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103217038.9624802</v>
+        <v>-103.2170389624803</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-380655.713763813</v>
+        <v>-0.3806557137638119</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8080760.656734565</v>
+        <v>-8.080760656734563</v>
       </c>
       <c r="E7">
-        <v>-1106020.135111766</v>
+        <v>-1.106020135111763</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-248699276.9308432</v>
+        <v>-248.6992769308435</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100336817.0268053</v>
+        <v>-100.3368170268055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-466441.7582144608</v>
+        <v>-0.4664417582144624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9268754.568413151</v>
+        <v>-9.268754568413177</v>
       </c>
       <c r="E7">
-        <v>-1355277.112068325</v>
+        <v>-1.35527711206833</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257391661.6200847</v>
+        <v>-257.3916616200853</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99178917.53498048</v>
+        <v>-99.17891753498068</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-535603.3084929236</v>
+        <v>-0.5356033084929246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10246310.48919195</v>
+        <v>-10.246310489192</v>
       </c>
       <c r="E7">
-        <v>-1556230.531175511</v>
+        <v>-1.556230531175514</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-267194414.2189255</v>
+        <v>-267.1944142189263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99719907.0650401</v>
+        <v>-99.71990706504036</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-567769.0727536572</v>
+        <v>-0.5677690727536548</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10702215.3869557</v>
+        <v>-10.70221538695568</v>
       </c>
       <c r="E7">
-        <v>-1649690.268274594</v>
+        <v>-1.649690268274588</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-274920670.4810297</v>
+        <v>-274.9206704810298</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101728600.5447236</v>
+        <v>-101.7286005447239</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-592353.370316548</v>
+        <v>-0.5923533703165469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10865710.35165107</v>
+        <v>-10.86571035165097</v>
       </c>
       <c r="E7">
-        <v>-1721121.556782738</v>
+        <v>-1.721121556782735</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-282297984.3147579</v>
+        <v>-282.2979843147576</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104836216.0370678</v>
+        <v>-104.836216037068</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-625669.8301137473</v>
+        <v>-0.62566983011375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10939352.21968183</v>
+        <v>-10.93935221968177</v>
       </c>
       <c r="E7">
-        <v>-1817924.715211637</v>
+        <v>-1.817924715211645</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290428733.8835</v>
+        <v>-290.4287338834999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-108611330.7288978</v>
+        <v>-108.611330728898</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-648500.7007762477</v>
+        <v>-0.6485007007762504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10891584.29004987</v>
+        <v>-10.8915842900499</v>
       </c>
       <c r="E7">
-        <v>-1884261.306892291</v>
+        <v>-1.884261306892299</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297842443.3157194</v>
+        <v>-297.8424433157199</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112623247.0081379</v>
+        <v>-112.6232470081381</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.002079260599389472</v>
+        <v>-0.002079260698604134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.001156907506550721</v>
+        <v>-0.001156907561754089</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6214898681049416</v>
+        <v>-3.161172472348373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.40852399669095</v>
+        <v>-58.53688118695844</v>
       </c>
       <c r="E7">
-        <v>-1.805779561523993</v>
+        <v>-9.184993889643065</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300.5971858741563</v>
+        <v>-1839.80470963975</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.4873514074286</v>
+        <v>-742.6703724127993</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5372301408199589</v>
+        <v>-3.870556251559277</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.26262373691061</v>
+        <v>-71.93218976352743</v>
       </c>
       <c r="E7">
-        <v>-1.560957399169586</v>
+        <v>-11.24615497289889</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296.2896261066296</v>
+        <v>-1995.379460626632</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.8929778171535</v>
+        <v>-765.1179419870047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.004853081297545839</v>
+        <v>-0.004853081836228909</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.002700270272298681</v>
+        <v>-0.002700270572023736</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01055526533687108</v>
+        <v>-0.01055526775512148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.005872980351863163</v>
+        <v>-0.005872981697385745</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.02176366992321114</v>
+        <v>-0.02176367929525463</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01210933163104562</v>
+        <v>-0.01210933684568184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.04308705859441472</v>
+        <v>-0.04308709087801486</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.02397338111847521</v>
+        <v>-0.02397339908117788</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.08257848249504192</v>
+        <v>-0.08257858338369578</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.04594403857759074</v>
+        <v>-0.04594409471237387</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1536386096577336</v>
+        <v>-0.1536389000835882</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.08546690334455949</v>
+        <v>-0.08546706493847255</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.2772105922807271</v>
+        <v>-0.2772113716786652</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1541411322950743</v>
+        <v>-0.1541415659546836</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.4842453256867184</v>
+        <v>-0.4842472947351019</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2689439447439528</v>
+        <v>-0.2689450403290332</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.818895958905185</v>
+        <v>-0.8189006801209161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.4534358320726517</v>
+        <v>-0.4534384589728133</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.344210779309631</v>
+        <v>-1.34422159573666</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.7388850709531243</v>
+        <v>-0.7388910892491585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.15599141988854</v>
+        <v>-2.156015229173785</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.165221953183087</v>
+        <v>-1.165235200748718</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.421355033734956</v>
+        <v>-3.421405611310494</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.781705280761176</v>
+        <v>-1.781733422292704</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0967635689967324</v>
+        <v>-0.09676356899673241</v>
       </c>
       <c r="E7">
         <v>-0.002351795583616513</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5.485493036697092</v>
+        <v>-5.48559707906048</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.647145154996485</v>
+        <v>-2.64720304451409</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9.141031783642756</v>
+        <v>-9.141239582215583</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3.829450203243583</v>
+        <v>-3.829565823061785</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.8536199561753163</v>
+        <v>-0.8536199561753164</v>
       </c>
       <c r="E7">
-        <v>-0.02316529667244403</v>
+        <v>-0.02316529667244404</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-16.15412499268528</v>
+        <v>-16.15452875330676</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.404188640691506</v>
+        <v>-5.404413294446431</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02197646454028311</v>
+        <v>-0.02197646454028312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.126246712919039</v>
+        <v>-2.12624671291904</v>
       </c>
       <c r="E7">
-        <v>-0.06385405867099202</v>
+        <v>-0.06385405867099203</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-29.48881905750208</v>
+        <v>-29.48958347467138</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7.451855595590257</v>
+        <v>-7.452280919849909</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05191490443700419</v>
+        <v>-0.05191490443700422</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.17629914261802</v>
+        <v>-4.176299142618027</v>
       </c>
       <c r="E7">
         <v>-0.1508421587896005</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-49.89608919248102</v>
+        <v>-49.89750111442444</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10.05374129174166</v>
+        <v>-10.05452688981477</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0929193679819873</v>
+        <v>-0.09291936798198752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.767087485053482</v>
+        <v>-5.767087485053531</v>
       </c>
       <c r="E7">
-        <v>-0.2699833161934462</v>
+        <v>-0.2699833161934468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68.34306331331737</v>
+        <v>-68.34561035006828</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13.28627029072706</v>
+        <v>-13.28768747046053</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1052135558173688</v>
+        <v>-0.1052135558173706</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.182363590942077</v>
+        <v>-6.182363590942431</v>
       </c>
       <c r="E7">
-        <v>-0.3057048850524258</v>
+        <v>-0.3057048850524309</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78.73913265100461</v>
+        <v>-78.74362454042257</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-17.21369538910869</v>
+        <v>-17.21619469134412</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0702128386144569</v>
+        <v>-0.07021283861446885</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.578720512841511</v>
+        <v>-6.57872051284386</v>
       </c>
       <c r="E7">
-        <v>-0.2040080062981171</v>
+        <v>-0.2040080062981518</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-89.17911104986023</v>
+        <v>-89.18686264581947</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21.87989887982714</v>
+        <v>-21.88421189363359</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04989895502944765</v>
+        <v>-0.04989895502952484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.228049949549549</v>
+        <v>-7.228049949564008</v>
       </c>
       <c r="E7">
-        <v>-0.144984685604507</v>
+        <v>-0.1449846856047312</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-103.1822165268677</v>
+        <v>-103.1953175045163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-27.30043842960648</v>
+        <v>-27.30772785715616</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08033910577666679</v>
+        <v>-0.08033910577713324</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.912321755426958</v>
+        <v>-7.912321755510453</v>
       </c>
       <c r="E7">
-        <v>-0.2334305394953317</v>
+        <v>-0.233430539496687</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-119.991284049724</v>
+        <v>-120.0129878467427</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-33.45600737948039</v>
+        <v>-33.46808344410146</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.125335241918018</v>
+        <v>-0.1253352419206656</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.652847743933679</v>
+        <v>-8.652847744387717</v>
       </c>
       <c r="E7">
-        <v>-0.3641697633532548</v>
+        <v>-0.3641697633609477</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-138.7826450013851</v>
+        <v>-138.8179180125543</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-40.28928085375487</v>
+        <v>-40.3089068727966</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1771726845291316</v>
+        <v>-0.1771726845433037</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.218747399766558</v>
+        <v>-9.218747402100737</v>
       </c>
       <c r="E7">
-        <v>-0.5147868517287261</v>
+        <v>-0.5147868517699041</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-157.5139262682169</v>
+        <v>-157.5702075770142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-47.70815090546677</v>
+        <v>-47.73946600348533</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2452071550296345</v>
+        <v>-0.2452071551014324</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.849513219933248</v>
+        <v>-9.849513231316671</v>
       </c>
       <c r="E7">
-        <v>-0.7124654666408688</v>
+        <v>-0.7124654668494824</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-177.9609417445077</v>
+        <v>-178.0491731597409</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-55.59922363749462</v>
+        <v>-55.64831584354408</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2937141293675326</v>
+        <v>-0.2937141297128958</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.941011644566315</v>
+        <v>-9.941011697383763</v>
       </c>
       <c r="E7">
-        <v>-0.8534056610769181</v>
+        <v>-0.8534056620803939</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-194.6446526118897</v>
+        <v>-194.7806476488337</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63.85581841873297</v>
+        <v>-63.93148629058982</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.329667833108936</v>
+        <v>-0.3296678346905956</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.558606789828598</v>
+        <v>-9.558607023547175</v>
       </c>
       <c r="E7">
-        <v>-0.9578715047040782</v>
+        <v>-0.9578715092996939</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-208.1154005269404</v>
+        <v>-208.3216281591922</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-72.42395790180302</v>
+        <v>-72.53870267024331</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4755570253315497</v>
+        <v>-0.4755570322432353</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.568268507578177</v>
+        <v>-9.568269495708442</v>
       </c>
       <c r="E7">
-        <v>-1.381762118345357</v>
+        <v>-1.381762138427712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-227.7925719041317</v>
+        <v>-228.1004353839689</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81.36720995642517</v>
+        <v>-81.53850210470326</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7640856799859028</v>
+        <v>-0.7640857088527345</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.406825732777516</v>
+        <v>-9.406829729112591</v>
       </c>
       <c r="E7">
-        <v>-2.220101042642782</v>
+        <v>-2.220101126517254</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250.8141696710061</v>
+        <v>-251.2668625079304</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90.94612737154473</v>
+        <v>-91.19799050906792</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.071210848318351</v>
+        <v>-1.071210963662613</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.34135501174662</v>
+        <v>-9.341370481418991</v>
       </c>
       <c r="E7">
-        <v>-3.112473356765051</v>
+        <v>-3.112473691905369</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277.1008301039305</v>
+        <v>-277.7568547036927</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.7002793594384</v>
+        <v>-102.0652290737895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.379649196584174</v>
+        <v>-1.379649637684162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.248299168016446</v>
+        <v>-9.248356481575254</v>
       </c>
       <c r="E7">
-        <v>-4.008661201286108</v>
+        <v>-4.008662482931044</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306.9178044470042</v>
+        <v>-307.8552617397382</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114.5133623679366</v>
+        <v>-115.03472736065</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.427952483564505</v>
+        <v>-1.427954097656483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.841077452435957</v>
+        <v>-8.841280571303994</v>
       </c>
       <c r="E7">
-        <v>-4.149009568749407</v>
+        <v>-4.149014258599482</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-334.0857167307367</v>
+        <v>-335.4075733460521</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130.6373134783591</v>
+        <v>-131.371949898915</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.253244213447413</v>
+        <v>-1.253249860883951</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.311645888759887</v>
+        <v>-8.312333789940229</v>
       </c>
       <c r="E7">
-        <v>-3.64138323468118</v>
+        <v>-3.641399643678329</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-363.7482381360359</v>
+        <v>-365.5891059884091</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-151.6520624131941</v>
+        <v>-152.6734496645848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.227889207794963</v>
+        <v>-1.22790807861776</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.555254387366428</v>
+        <v>-7.557477531573027</v>
       </c>
       <c r="E7">
-        <v>-3.567712603285158</v>
+        <v>-3.567767433698116</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-407.3719995036932</v>
+        <v>-409.9079057493472</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-179.3467251422882</v>
+        <v>-180.7484032122126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.128931520355846</v>
+        <v>-1.128991642367108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.43811257143217</v>
+        <v>-7.44495546155562</v>
       </c>
       <c r="E7">
-        <v>-3.280184553989489</v>
+        <v>-3.280359242435283</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-469.139986090236</v>
+        <v>-472.6050193914706</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-215.525173696177</v>
+        <v>-217.4244501867686</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9793859804810032</v>
+        <v>-0.9795682087509464</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.557335670594686</v>
+        <v>-8.577342850882451</v>
       </c>
       <c r="E7">
-        <v>-2.845670182505861</v>
+        <v>-2.846199658692494</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-556.8049582883159</v>
+        <v>-561.5241299561684</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-261.7590407581688</v>
+        <v>-264.3008636602736</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.833678706848768</v>
+        <v>-0.8342025402014731</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.50875535834699</v>
+        <v>-11.56410754743095</v>
       </c>
       <c r="E7">
-        <v>-2.422308145256935</v>
+        <v>-2.423830177409838</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-677.9828389983189</v>
+        <v>-684.4410311603822</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-319.1257859093432</v>
+        <v>-322.4866508030477</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9256815343313477</v>
+        <v>-0.9271032060321573</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-17.51908262972272</v>
+        <v>-17.66315387501474</v>
       </c>
       <c r="E7">
-        <v>-2.689628392933776</v>
+        <v>-2.693759153276414</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-847.9380347792234</v>
+        <v>-856.9201316002537</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-387.9710784235833</v>
+        <v>-392.3628226415831</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.433009911204391</v>
+        <v>-1.436627747121649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26.56914602023209</v>
+        <v>-26.91883852487313</v>
       </c>
       <c r="E7">
-        <v>-4.163704256361675</v>
+        <v>-4.174216115832938</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1069.804343396348</v>
+        <v>-1082.648087842182</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-467.7233047484854</v>
+        <v>-473.3966435968136</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.930882830129946E-06</v>
+        <v>-3.930882830146386E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.187156302425599E-06</v>
+        <v>-2.187156302434746E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.040836487532989</v>
+        <v>-2.049377876249534</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-37.14591871857047</v>
+        <v>-37.92697448381894</v>
       </c>
       <c r="E7">
-        <v>-5.929784227757043</v>
+        <v>-5.954601792713331</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1321.987946240841</v>
+        <v>-1340.937932767654</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-556.7720522575648</v>
+        <v>-564.0197414649803</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.847165513628735</v>
+        <v>-2.865570642679612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-51.7732639769476</v>
+        <v>-53.34802023097227</v>
       </c>
       <c r="E7">
-        <v>-8.272626082326719</v>
+        <v>-8.326103391568505</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1620.478441904168</v>
+        <v>-1648.913177654976</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-652.4143023017104</v>
+        <v>-661.5738736814914</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.044583912380546</v>
+        <v>-4.079907403982463</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73.29415359178125</v>
+        <v>-76.0892715764487</v>
       </c>
       <c r="E7">
-        <v>-11.75180375203202</v>
+        <v>-11.85443847296626</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1983.971159355517</v>
+        <v>-2025.875909156405</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-750.8783696028523</v>
+        <v>-762.3344889533803</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.87004643777597</v>
+        <v>-4.928393799059103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87.87003179803014</v>
+        <v>-92.12819466589751</v>
       </c>
       <c r="E7">
-        <v>-14.15023924335904</v>
+        <v>-14.31977132727734</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2284.219385447957</v>
+        <v>-2342.298363573856</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-847.4504176987933</v>
+        <v>-861.6370577177848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.954739327215169</v>
+        <v>-5.034320038736504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-89.1567905598921</v>
+        <v>-94.67789338232723</v>
       </c>
       <c r="E7">
-        <v>-14.39631998675402</v>
+        <v>-14.62754696201422</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2456.158382716143</v>
+        <v>-2529.776326011056</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-936.7359619954329</v>
+        <v>-954.1387664112821</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.889294783160635</v>
+        <v>-4.976308986943035</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87.9920397205517</v>
+        <v>-94.30361274455251</v>
       </c>
       <c r="E7">
-        <v>-14.20616657294652</v>
+        <v>-14.45899204736923</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2583.2482789908</v>
+        <v>-2669.583949852193</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1013.074811918623</v>
+        <v>-1034.234241951294</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.775353407675252</v>
+        <v>-4.855629900060163</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85.90254330235395</v>
+        <v>-92.75565488267615</v>
       </c>
       <c r="E7">
-        <v>-13.87510243558443</v>
+        <v>-14.10835104776459</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2669.462722250011</v>
+        <v>-2767.429201731553</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1071.090179519302</v>
+        <v>-1096.606264014383</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.604197830729516</v>
+        <v>-4.683488442211999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-82.47958274038041</v>
+        <v>-89.92263852500746</v>
       </c>
       <c r="E7">
-        <v>-13.37779868446798</v>
+        <v>-13.60818275504406</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2703.549648973217</v>
+        <v>-2814.839308815353</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1106.303457147646</v>
+        <v>-1136.843187506714</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.451709689626602</v>
+        <v>-4.554006832039297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79.36596111558114</v>
+        <v>-87.46164457172856</v>
       </c>
       <c r="E7">
-        <v>-12.9347343921762</v>
+        <v>-13.23196544685843</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2693.964567340744</v>
+        <v>-2820.956612560462</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1115.706079043343</v>
+        <v>-1152.014662920418</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.303705303948738</v>
+        <v>-4.449738074794166</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-76.43283195801993</v>
+        <v>-85.16147699859721</v>
       </c>
       <c r="E7">
-        <v>-12.50469794526204</v>
+        <v>-12.92900573600604</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2637.391018485797</v>
+        <v>-2781.952900803517</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1098.168640726397</v>
+        <v>-1141.085907269553</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.192435507587474E-05</v>
+        <v>-2.192435507787431E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.219878420523436E-05</v>
+        <v>-1.219878420634692E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.929088894046354</v>
+        <v>-4.129616484175387</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-69.42808537009783</v>
+        <v>-78.69246848190014</v>
       </c>
       <c r="E7">
-        <v>-11.41622540350373</v>
+        <v>-11.99887146478357</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2498.732752721816</v>
+        <v>-2662.133767627015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1054.595283660928</v>
+        <v>-1105.078462086459</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.070160742996322</v>
+        <v>-3.333065612776708</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-53.64947798022025</v>
+        <v>-63.27744044816564</v>
       </c>
       <c r="E7">
-        <v>-8.920553342568635</v>
+        <v>-9.68444067981865</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2242.375342844347</v>
+        <v>-2425.531690132018</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-987.7936041943516</v>
+        <v>-1046.947416781073</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.739177634986117</v>
+        <v>-2.074767225412252</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-29.12731749465204</v>
+        <v>-38.86821514083068</v>
       </c>
       <c r="E7">
-        <v>-5.053294652564255</v>
+        <v>-6.028372211430263</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1876.64206819603</v>
+        <v>-2080.287200092622</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-902.1061077891783</v>
+        <v>-971.2205714914912</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8483803901400008</v>
+        <v>-1.285756767525632</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.02872182414753</v>
+        <v>-21.66067852203073</v>
       </c>
       <c r="E7">
-        <v>-2.465024850017155</v>
+        <v>-3.735850592333223</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1551.62391597115</v>
+        <v>-1777.571013563884</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-802.9067897727949</v>
+        <v>-883.5022652969865</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7654082910041908</v>
+        <v>-1.368018111032152</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.324220963977707</v>
+        <v>-18.81533922350046</v>
       </c>
       <c r="E7">
-        <v>-2.223943975677159</v>
+        <v>-3.974866319589609</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1337.818877775244</v>
+        <v>-1590.608510360362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-696.0777756080897</v>
+        <v>-789.9556245002132</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7298754414547787</v>
+        <v>-1.563792411614187</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.353941248231646</v>
+        <v>-17.72763684188755</v>
       </c>
       <c r="E7">
-        <v>-2.120700951499328</v>
+        <v>-4.543701386427739</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1134.786401924564</v>
+        <v>-1420.028202590134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-587.5403468137011</v>
+        <v>-696.8360844212639</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5568039049876882</v>
+        <v>-1.628925341606003</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.1932196151121</v>
+        <v>-15.40909393356998</v>
       </c>
       <c r="E7">
-        <v>-1.617830254368261</v>
+        <v>-4.732949385144163</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-926.6220370253607</v>
+        <v>-1248.717366620488</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-482.8492207996445</v>
+        <v>-610.0833721468429</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2666586837538806</v>
+        <v>-1.500193748140531</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.813874874594515</v>
+        <v>-11.79226409917134</v>
       </c>
       <c r="E7">
-        <v>-0.7747942898794604</v>
+        <v>-4.358911299678359</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-722.2642797112692</v>
+        <v>-1084.067841049763</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-386.8168182827847</v>
+        <v>-534.9369497040913</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04971097347305062</v>
+        <v>-1.311749823482118</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5308127225528885</v>
+        <v>-9.142961812442278</v>
       </c>
       <c r="E7">
-        <v>-0.1444384928668517</v>
+        <v>-3.811375120723195</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-549.9281362197153</v>
+        <v>-953.3888600963845</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-303.1501244148733</v>
+        <v>-475.5559621829725</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.007736842659078815</v>
+        <v>-1.206131501179937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4979481620638176</v>
+        <v>-8.734066902929497</v>
       </c>
       <c r="E7">
-        <v>-0.02247990363397588</v>
+        <v>-3.504494160109485</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-424.651773520709</v>
+        <v>-874.3874315269488</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-234.1453853730461</v>
+        <v>-434.6878306498754</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-8.707549025660613E-05</v>
+        <v>-8.707549033870368E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.844909287088549E-05</v>
+        <v>-4.844909291656484E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01482417622688838</v>
+        <v>-1.125042033341954</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.232986062422979</v>
+        <v>-9.434000759707105</v>
       </c>
       <c r="E7">
-        <v>-0.04307261601636406</v>
+        <v>-3.268883394445384</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-333.8622560526417</v>
+        <v>-839.4403908179268</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-180.540661888562</v>
+        <v>-413.4851908874857</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04336530028749351</v>
+        <v>-1.0552257049545</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.607016643724382</v>
+        <v>-11.59223365576159</v>
       </c>
       <c r="E7">
-        <v>-0.1260007233541635</v>
+        <v>-3.066027474610143</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-274.6557229136112</v>
+        <v>-850.0927010369081</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141.6172651360751</v>
+        <v>-411.5629765961894</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1173245883731117</v>
+        <v>-1.072959359011259</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.655317526872734</v>
+        <v>-15.8557024725495</v>
       </c>
       <c r="E7">
-        <v>-0.3408942842373202</v>
+        <v>-3.117553769229356</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-244.6048450243888</v>
+        <v>-910.0236391378193</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.5580264129118</v>
+        <v>-427.3057089744773</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2706773684894259</v>
+        <v>-1.285694353737778</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.223473232107551</v>
+        <v>-22.77828358392226</v>
       </c>
       <c r="E7">
-        <v>-0.7864708418750447</v>
+        <v>-3.735669244980276</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-239.0841589771959</v>
+        <v>-1021.599955707048</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99.96040550630319</v>
+        <v>-458.3265548465833</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4927656160558163</v>
+        <v>-1.75148992068187</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.939472274075268</v>
+        <v>-32.57297313850511</v>
       </c>
       <c r="E7">
-        <v>-1.431762807024749</v>
+        <v>-5.089068805943183</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-250.6431732307306</v>
+        <v>-1182.917634495919</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.33765310231739</v>
+        <v>-501.9162890417012</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6926278537311833</v>
+        <v>-2.424221607715209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.47586669142114</v>
+        <v>-45.13577668211192</v>
       </c>
       <c r="E7">
-        <v>-2.012475643124737</v>
+        <v>-7.043734832178758</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270.6843426479714</v>
+        <v>-1387.192935801813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90.465379675656</v>
+        <v>-555.3454827956456</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8231443225907435</v>
+        <v>-3.231103204018857</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14.71821517292817</v>
+        <v>-60.2177793845486</v>
       </c>
       <c r="E7">
-        <v>-2.391699801078477</v>
+        <v>-9.388182215718325</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293.9610397729462</v>
+        <v>-1626.103725348308</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.52537002704902</v>
+        <v>-615.9782297267075</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.85227222997145</v>
+        <v>-4.069195262048332</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15.25428724975862</v>
+        <v>-76.05359206239699</v>
       </c>
       <c r="E7">
-        <v>-2.476332845826942</v>
+        <v>-11.82331364220469</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306.8055316122775</v>
+        <v>-1879.631561137993</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97.09630002062545</v>
+        <v>-681.2533055804336</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6508012566424112</v>
+        <v>-4.701321992155155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.553629348751</v>
+        <v>-88.17144645425842</v>
       </c>
       <c r="E7">
-        <v>-1.890945722803897</v>
+        <v>-13.65999930371116</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285.594587425818</v>
+        <v>-2104.729711114621</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103.0811492941791</v>
+        <v>-748.6277200846299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2972019603128109</v>
+        <v>-4.960833482419976</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.187366246086436</v>
+        <v>-93.49771883433704</v>
       </c>
       <c r="E7">
-        <v>-0.8635397825779481</v>
+        <v>-14.41402695428216</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-242.2122091334604</v>
+        <v>-2270.279438953348</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109.6360204700854</v>
+        <v>-815.5506245111079</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0002847889001736999</v>
+        <v>-0.0002847889015811998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0001584574928167979</v>
+        <v>-0.0001584574935999355</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08383716332798716</v>
+        <v>-4.967567905446606</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.417965233839542</v>
+        <v>-94.18228341122422</v>
       </c>
       <c r="E7">
-        <v>-0.2435943750707532</v>
+        <v>-14.43359426194757</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-221.1010790834664</v>
+        <v>-2390.359021698952</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.1166488500985</v>
+        <v>-879.484492024621</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0803377290237898</v>
+        <v>-4.917065307343287</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.374628722030997</v>
+        <v>-93.68203125872311</v>
       </c>
       <c r="E7">
-        <v>-0.233426539249577</v>
+        <v>-14.28685565181235</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231.3300343631416</v>
+        <v>-2490.570181155525</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-122.0317273410221</v>
+        <v>-937.9602388795892</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.185011076434939</v>
+        <v>-4.907789468765642</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.1776458681216</v>
+        <v>-93.64143651850868</v>
       </c>
       <c r="E7">
-        <v>-0.537561813357436</v>
+        <v>-14.25990409462836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255.9851317648516</v>
+        <v>-2581.157653249711</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-126.9961883545187</v>
+        <v>-988.6537337162104</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3406481122743381</v>
+        <v>-4.945880718370704</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.852198224420571</v>
+        <v>-94.09462578641445</v>
       </c>
       <c r="E7">
-        <v>-0.9897754257722858</v>
+        <v>-14.37058071791663</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285.9755760391321</v>
+        <v>-2658.779015670363</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130.6929706087511</v>
+        <v>-1029.48351192151</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3938454843073322</v>
+        <v>-4.827300171376706</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.764670640414358</v>
+        <v>-91.38318584089711</v>
       </c>
       <c r="E7">
-        <v>-1.144343878250659</v>
+        <v>-14.02603716355584</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297.8343229417212</v>
+        <v>-2688.629648022451</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-132.8581073191833</v>
+        <v>-1058.733405971685</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2703111493416238</v>
+        <v>-4.373742419163586</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.620854627532944</v>
+        <v>-82.26912991621887</v>
       </c>
       <c r="E7">
-        <v>-0.785406768128909</v>
+        <v>-12.70819537570078</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-279.9392314298442</v>
+        <v>-2640.518948296811</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-133.2970777028042</v>
+        <v>-1075.195451870772</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1241023289859076</v>
+        <v>-3.645514959508514</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.088153249492937</v>
+        <v>-67.68955473633855</v>
       </c>
       <c r="E7">
-        <v>-0.3605874539895765</v>
+        <v>-10.5922827433751</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255.3979346503243</v>
+        <v>-2521.770510803226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131.9274501536294</v>
+        <v>-1078.315315229167</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09066531546428835</v>
+        <v>-2.814717979203528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.496712689247297</v>
+        <v>-50.53477580289736</v>
       </c>
       <c r="E7">
-        <v>-0.2634340188099285</v>
+        <v>-8.178347643539697</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-244.6941230608761</v>
+        <v>-2358.102437773288</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128.8311690464328</v>
+        <v>-1068.312042348631</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1957563976924369</v>
+        <v>-2.224080699149799</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.253739276771511</v>
+        <v>-36.8429774583669</v>
       </c>
       <c r="E7">
-        <v>-0.5687830488185467</v>
+        <v>-6.462212299535904</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251.94402699278</v>
+        <v>-2203.907813979444</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124.2930019674314</v>
+        <v>-1046.239814772204</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3721886418164447</v>
+        <v>-2.054569415993853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.326649007430158</v>
+        <v>-30.09707589219665</v>
       </c>
       <c r="E7">
-        <v>-1.081418502401111</v>
+        <v>-5.969686151838469</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268.8410677545768</v>
+        <v>-2092.415438285285</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118.8019439185052</v>
+        <v>-1013.963665578631</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0008132768131619092</v>
+        <v>-0.0008132768273077779</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0004525099276095844</v>
+        <v>-0.0004525099354803929</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4731737324371284</v>
+        <v>-2.101336664722681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.490773958672305</v>
+        <v>-27.33189566031468</v>
       </c>
       <c r="E7">
-        <v>-1.374837304573261</v>
+        <v>-6.105571459447325</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276.7031343111338</v>
+        <v>-2001.545980988248</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.001700347627</v>
+        <v>-974.0353263405065</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4260268401179365</v>
+        <v>-2.105078649035359</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.404488511554094</v>
+        <v>-24.79682079943669</v>
       </c>
       <c r="E7">
-        <v>-1.237848917620195</v>
+        <v>-6.116444040221622</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265.2104884282842</v>
+        <v>-1902.999459002893</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107.5938732506119</v>
+        <v>-929.4780399503229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3623051655838808</v>
+        <v>-2.000277714112514</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.772951691210315</v>
+        <v>-21.9028056164673</v>
       </c>
       <c r="E7">
-        <v>-1.052701414169259</v>
+        <v>-5.811938052232891</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251.1782670844419</v>
+        <v>-1796.667626620392</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103.2170389624803</v>
+        <v>-883.5134630681724</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3806557137638119</v>
+        <v>-1.854035994921176</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.080760656734563</v>
+        <v>-19.82307370023649</v>
       </c>
       <c r="E7">
-        <v>-1.106020135111763</v>
+        <v>-5.387023148369554</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-248.6992769308435</v>
+        <v>-1698.402545170256</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100.3368170268055</v>
+        <v>-839.2792838578235</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4664417582144624</v>
+        <v>-1.743394617273683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.268754568413177</v>
+        <v>-19.48842622324805</v>
       </c>
       <c r="E7">
-        <v>-1.35527711206833</v>
+        <v>-5.065547371099179</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257.3916616200853</v>
+        <v>-1621.932663919377</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99.17891753498068</v>
+        <v>-799.58500692083</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5356033084929246</v>
+        <v>-1.680488516735197</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.246310489192</v>
+        <v>-20.77522309348753</v>
       </c>
       <c r="E7">
-        <v>-1.556230531175514</v>
+        <v>-4.882769571367791</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-267.1944142189263</v>
+        <v>-1570.790475012014</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99.71990706504036</v>
+        <v>-766.7361619798974</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5677690727536548</v>
+        <v>-1.673761963741183</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.70221538695568</v>
+        <v>-23.66253434830674</v>
       </c>
       <c r="E7">
-        <v>-1.649690268274588</v>
+        <v>-4.863225130598167</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-274.9206704810298</v>
+        <v>-1548.084175871063</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.7286005447239</v>
+        <v>-742.433617462837</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5923533703165469</v>
+        <v>-1.770826825524957</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.86571035165097</v>
+        <v>-28.54485795859719</v>
       </c>
       <c r="E7">
-        <v>-1.721121556782735</v>
+        <v>-5.145253450843757</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-282.2979843147576</v>
+        <v>-1559.758428759735</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.836216037068</v>
+        <v>-727.7367429998067</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.62566983011375</v>
+        <v>-2.043792579684766</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.93935221968177</v>
+        <v>-36.00573135875564</v>
       </c>
       <c r="E7">
-        <v>-1.817924715211645</v>
+        <v>-5.938373347328593</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290.4287338834999</v>
+        <v>-1612.599228429658</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-108.611330728898</v>
+        <v>-723.0730134252399</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6485007007762504</v>
+        <v>-2.52259336951828</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.8915842900499</v>
+        <v>-46.19904466513678</v>
       </c>
       <c r="E7">
-        <v>-1.884261306892299</v>
+        <v>-7.329560436121021</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297.8424433157199</v>
+        <v>-1708.165776528195</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112.6232470081381</v>
+        <v>-728.2798568439497</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.002079260698604134</v>
+        <v>-0.002079260698604133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68.34561035006828</v>
+        <v>-68.3456103500683</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-89.18686264581947</v>
+        <v>-89.18686264581949</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-409.9079057493472</v>
+        <v>-409.9079057493473</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1340.937932767654</v>
+        <v>-1340.937932767655</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-874.3874315269488</v>
+        <v>-874.3874315269487</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-839.4403908179268</v>
+        <v>-839.4403908179266</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2490.570181155525</v>
+        <v>-2490.570181155526</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2658.779015670363</v>
+        <v>-2658.779015670364</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b2.xlsx
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68.3456103500683</v>
+        <v>-68.34561035006828</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-89.18686264581949</v>
+        <v>-89.18686264581947</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-856.9201316002537</v>
+        <v>-856.9201316002539</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1340.937932767655</v>
+        <v>-1340.937932767654</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1879.631561137993</v>
+        <v>-1879.631561137994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2490.570181155526</v>
+        <v>-2490.570181155525</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11929,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2581.157653249711</v>
+        <v>-2581.157653249712</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2658.779015670364</v>
+        <v>-2658.779015670363</v>
       </c>
     </row>
     <row r="8" spans="1:7">
